--- a/od.xlsx
+++ b/od.xlsx
@@ -37,16 +37,16 @@
     <t>astigmatism</t>
   </si>
   <si>
+    <t>Phakic/Pseudophakic</t>
+  </si>
+  <si>
+    <t>Pneumatic</t>
+  </si>
+  <si>
+    <t>Perkins</t>
+  </si>
+  <si>
     <t>Pachymetry</t>
-  </si>
-  <si>
-    <t>Phakic/Pseudophakic</t>
-  </si>
-  <si>
-    <t>Pneumatic</t>
-  </si>
-  <si>
-    <t>Perkins</t>
   </si>
   <si>
     <t>Axial_Length</t>
@@ -843,27 +843,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -872,7 +857,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1195,14 +1180,14 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>265</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
@@ -1234,16 +1219,16 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>11</v>
@@ -1274,14 +1259,14 @@
       <c r="G3">
         <v>23</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>262</v>
+      </c>
+      <c r="I3">
+        <v>19</v>
+      </c>
+      <c r="K3">
         <v>577</v>
-      </c>
-      <c r="I3" t="s">
-        <v>262</v>
-      </c>
-      <c r="J3">
-        <v>19</v>
       </c>
       <c r="L3">
         <v>25.06</v>
@@ -1309,14 +1294,14 @@
       <c r="G4">
         <v>156</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="s">
+        <v>263</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="K4">
         <v>486</v>
-      </c>
-      <c r="I4" t="s">
-        <v>263</v>
-      </c>
-      <c r="J4">
-        <v>14</v>
       </c>
       <c r="L4">
         <v>25.37</v>
@@ -1344,14 +1329,14 @@
       <c r="G5">
         <v>120</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="s">
+        <v>263</v>
+      </c>
+      <c r="J5">
+        <v>22</v>
+      </c>
+      <c r="K5">
         <v>570</v>
-      </c>
-      <c r="I5" t="s">
-        <v>263</v>
-      </c>
-      <c r="K5">
-        <v>22</v>
       </c>
       <c r="L5">
         <v>25.08</v>
@@ -1382,14 +1367,14 @@
       <c r="G6">
         <v>150</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="s">
+        <v>263</v>
+      </c>
+      <c r="I6">
+        <v>13</v>
+      </c>
+      <c r="K6">
         <v>605</v>
-      </c>
-      <c r="I6" t="s">
-        <v>263</v>
-      </c>
-      <c r="J6">
-        <v>13</v>
       </c>
       <c r="L6">
         <v>22.8</v>
@@ -1417,14 +1402,14 @@
       <c r="G7">
         <v>102</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J7">
+        <v>16</v>
+      </c>
+      <c r="K7">
         <v>555</v>
-      </c>
-      <c r="I7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K7">
-        <v>16</v>
       </c>
       <c r="L7">
         <v>21.7</v>
@@ -1455,14 +1440,14 @@
       <c r="G8">
         <v>100</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="s">
+        <v>263</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="K8">
         <v>530</v>
-      </c>
-      <c r="I8" t="s">
-        <v>263</v>
-      </c>
-      <c r="J8">
-        <v>15</v>
       </c>
       <c r="L8">
         <v>22.24</v>
@@ -1493,14 +1478,14 @@
       <c r="G9">
         <v>49</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="s">
+        <v>263</v>
+      </c>
+      <c r="I9">
+        <v>14</v>
+      </c>
+      <c r="K9">
         <v>537</v>
-      </c>
-      <c r="I9" t="s">
-        <v>263</v>
-      </c>
-      <c r="J9">
-        <v>14</v>
       </c>
       <c r="L9">
         <v>23.1</v>
@@ -1528,11 +1513,11 @@
       <c r="G10">
         <v>180</v>
       </c>
-      <c r="H10">
+      <c r="I10">
+        <v>18</v>
+      </c>
+      <c r="K10">
         <v>551</v>
-      </c>
-      <c r="J10">
-        <v>18</v>
       </c>
       <c r="L10">
         <v>23.56</v>
@@ -1560,14 +1545,14 @@
       <c r="G11">
         <v>175</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="s">
+        <v>263</v>
+      </c>
+      <c r="I11">
+        <v>21</v>
+      </c>
+      <c r="K11">
         <v>450</v>
-      </c>
-      <c r="I11" t="s">
-        <v>263</v>
-      </c>
-      <c r="J11">
-        <v>21</v>
       </c>
       <c r="L11">
         <v>22.05</v>
@@ -1595,14 +1580,14 @@
       <c r="G12">
         <v>5</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="s">
+        <v>262</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="K12">
         <v>553</v>
-      </c>
-      <c r="I12" t="s">
-        <v>262</v>
-      </c>
-      <c r="J12">
-        <v>15</v>
       </c>
       <c r="L12">
         <v>26.22</v>
@@ -1630,14 +1615,14 @@
       <c r="G13">
         <v>135</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="s">
+        <v>262</v>
+      </c>
+      <c r="I13">
+        <v>13</v>
+      </c>
+      <c r="K13">
         <v>525</v>
-      </c>
-      <c r="I13" t="s">
-        <v>262</v>
-      </c>
-      <c r="J13">
-        <v>13</v>
       </c>
       <c r="L13">
         <v>22.48</v>
@@ -1665,14 +1650,14 @@
       <c r="G14">
         <v>110</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="s">
+        <v>263</v>
+      </c>
+      <c r="I14">
+        <v>22</v>
+      </c>
+      <c r="K14">
         <v>612</v>
-      </c>
-      <c r="I14" t="s">
-        <v>263</v>
-      </c>
-      <c r="J14">
-        <v>22</v>
       </c>
       <c r="L14">
         <v>22.5</v>
@@ -1700,14 +1685,14 @@
       <c r="G15">
         <v>70</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="s">
+        <v>263</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="K15">
         <v>513</v>
-      </c>
-      <c r="I15" t="s">
-        <v>263</v>
-      </c>
-      <c r="J15">
-        <v>9</v>
       </c>
       <c r="L15">
         <v>24.14</v>
@@ -1735,14 +1720,14 @@
       <c r="G16">
         <v>118</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="s">
+        <v>263</v>
+      </c>
+      <c r="I16">
+        <v>19</v>
+      </c>
+      <c r="K16">
         <v>628</v>
-      </c>
-      <c r="I16" t="s">
-        <v>263</v>
-      </c>
-      <c r="J16">
-        <v>19</v>
       </c>
       <c r="L16">
         <v>21.7</v>
@@ -1767,17 +1752,17 @@
       <c r="G17">
         <v>80</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="s">
+        <v>263</v>
+      </c>
+      <c r="I17">
+        <v>24</v>
+      </c>
+      <c r="J17">
+        <v>22</v>
+      </c>
+      <c r="K17">
         <v>630</v>
-      </c>
-      <c r="I17" t="s">
-        <v>263</v>
-      </c>
-      <c r="J17">
-        <v>24</v>
-      </c>
-      <c r="K17">
-        <v>22</v>
       </c>
       <c r="L17">
         <v>23.94</v>
@@ -1808,14 +1793,14 @@
       <c r="G18">
         <v>120</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="s">
+        <v>263</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="K18">
         <v>543</v>
-      </c>
-      <c r="I18" t="s">
-        <v>263</v>
-      </c>
-      <c r="K18">
-        <v>18</v>
       </c>
       <c r="L18">
         <v>22.42</v>
@@ -1846,14 +1831,14 @@
       <c r="G19">
         <v>54</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="s">
+        <v>263</v>
+      </c>
+      <c r="I19">
+        <v>19</v>
+      </c>
+      <c r="K19">
         <v>593</v>
-      </c>
-      <c r="I19" t="s">
-        <v>263</v>
-      </c>
-      <c r="J19">
-        <v>19</v>
       </c>
       <c r="L19">
         <v>22.51</v>
@@ -1881,17 +1866,17 @@
       <c r="G20">
         <v>88</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="s">
+        <v>263</v>
+      </c>
+      <c r="I20">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20">
         <v>555</v>
-      </c>
-      <c r="I20" t="s">
-        <v>263</v>
-      </c>
-      <c r="J20">
-        <v>18</v>
-      </c>
-      <c r="K20">
-        <v>16</v>
       </c>
       <c r="L20">
         <v>22.83</v>
@@ -1922,14 +1907,14 @@
       <c r="G21">
         <v>102</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="s">
+        <v>262</v>
+      </c>
+      <c r="I21">
+        <v>17</v>
+      </c>
+      <c r="K21">
         <v>535</v>
-      </c>
-      <c r="I21" t="s">
-        <v>262</v>
-      </c>
-      <c r="J21">
-        <v>17</v>
       </c>
       <c r="L21">
         <v>24.93</v>
@@ -1957,10 +1942,10 @@
       <c r="G22">
         <v>105</v>
       </c>
-      <c r="I22" t="s">
-        <v>263</v>
-      </c>
-      <c r="K22">
+      <c r="H22" t="s">
+        <v>263</v>
+      </c>
+      <c r="J22">
         <v>17</v>
       </c>
       <c r="L22">
@@ -1992,14 +1977,14 @@
       <c r="G23">
         <v>172</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="s">
+        <v>263</v>
+      </c>
+      <c r="I23">
+        <v>17</v>
+      </c>
+      <c r="K23">
         <v>534</v>
-      </c>
-      <c r="I23" t="s">
-        <v>263</v>
-      </c>
-      <c r="J23">
-        <v>17</v>
       </c>
       <c r="L23">
         <v>23</v>
@@ -2027,14 +2012,14 @@
       <c r="G24">
         <v>80</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="s">
+        <v>263</v>
+      </c>
+      <c r="I24">
+        <v>18</v>
+      </c>
+      <c r="K24">
         <v>515</v>
-      </c>
-      <c r="I24" t="s">
-        <v>263</v>
-      </c>
-      <c r="J24">
-        <v>18</v>
       </c>
       <c r="L24">
         <v>23.58</v>
@@ -2062,14 +2047,14 @@
       <c r="G25">
         <v>85</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="s">
+        <v>263</v>
+      </c>
+      <c r="J25">
+        <v>24</v>
+      </c>
+      <c r="K25">
         <v>580</v>
-      </c>
-      <c r="I25" t="s">
-        <v>263</v>
-      </c>
-      <c r="K25">
-        <v>24</v>
       </c>
       <c r="L25">
         <v>22.16</v>
@@ -2100,14 +2085,14 @@
       <c r="G26">
         <v>180</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="s">
+        <v>263</v>
+      </c>
+      <c r="I26">
+        <v>16</v>
+      </c>
+      <c r="K26">
         <v>538</v>
-      </c>
-      <c r="I26" t="s">
-        <v>263</v>
-      </c>
-      <c r="J26">
-        <v>16</v>
       </c>
       <c r="L26">
         <v>23.22</v>
@@ -2135,14 +2120,14 @@
       <c r="G27">
         <v>80</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="s">
+        <v>262</v>
+      </c>
+      <c r="I27">
+        <v>16</v>
+      </c>
+      <c r="K27">
         <v>585</v>
-      </c>
-      <c r="I27" t="s">
-        <v>262</v>
-      </c>
-      <c r="J27">
-        <v>16</v>
       </c>
       <c r="L27">
         <v>23.58</v>
@@ -2170,14 +2155,14 @@
       <c r="G28">
         <v>79</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="s">
+        <v>262</v>
+      </c>
+      <c r="I28">
+        <v>17</v>
+      </c>
+      <c r="K28">
         <v>571</v>
-      </c>
-      <c r="I28" t="s">
-        <v>262</v>
-      </c>
-      <c r="J28">
-        <v>17</v>
       </c>
       <c r="L28">
         <v>22</v>
@@ -2205,14 +2190,14 @@
       <c r="G29">
         <v>85</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="s">
+        <v>262</v>
+      </c>
+      <c r="I29">
+        <v>19</v>
+      </c>
+      <c r="K29">
         <v>571</v>
-      </c>
-      <c r="I29" t="s">
-        <v>262</v>
-      </c>
-      <c r="J29">
-        <v>19</v>
       </c>
       <c r="L29">
         <v>23.83</v>
@@ -2240,14 +2225,14 @@
       <c r="G30">
         <v>100</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="s">
+        <v>263</v>
+      </c>
+      <c r="I30">
+        <v>17</v>
+      </c>
+      <c r="K30">
         <v>523</v>
-      </c>
-      <c r="I30" t="s">
-        <v>263</v>
-      </c>
-      <c r="J30">
-        <v>17</v>
       </c>
       <c r="L30">
         <v>22.69</v>
@@ -2275,14 +2260,14 @@
       <c r="G31">
         <v>90</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="s">
+        <v>262</v>
+      </c>
+      <c r="I31">
+        <v>18</v>
+      </c>
+      <c r="K31">
         <v>547</v>
-      </c>
-      <c r="I31" t="s">
-        <v>262</v>
-      </c>
-      <c r="J31">
-        <v>18</v>
       </c>
       <c r="L31">
         <v>24.07</v>
@@ -2310,14 +2295,14 @@
       <c r="G32">
         <v>100</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="s">
+        <v>263</v>
+      </c>
+      <c r="J32">
+        <v>17</v>
+      </c>
+      <c r="K32">
         <v>478</v>
-      </c>
-      <c r="I32" t="s">
-        <v>263</v>
-      </c>
-      <c r="K32">
-        <v>17</v>
       </c>
       <c r="L32">
         <v>24.09</v>
@@ -2348,14 +2333,14 @@
       <c r="G33">
         <v>155</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="s">
+        <v>263</v>
+      </c>
+      <c r="I33">
+        <v>17</v>
+      </c>
+      <c r="K33">
         <v>572</v>
-      </c>
-      <c r="I33" t="s">
-        <v>263</v>
-      </c>
-      <c r="J33">
-        <v>17</v>
       </c>
       <c r="L33">
         <v>22.97</v>
@@ -2383,14 +2368,14 @@
       <c r="G34">
         <v>100</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="s">
+        <v>262</v>
+      </c>
+      <c r="I34">
+        <v>15</v>
+      </c>
+      <c r="K34">
         <v>511</v>
-      </c>
-      <c r="I34" t="s">
-        <v>262</v>
-      </c>
-      <c r="J34">
-        <v>15</v>
       </c>
       <c r="L34">
         <v>25.66</v>
@@ -2418,14 +2403,14 @@
       <c r="G35">
         <v>95</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="s">
+        <v>263</v>
+      </c>
+      <c r="I35">
+        <v>15</v>
+      </c>
+      <c r="K35">
         <v>545</v>
-      </c>
-      <c r="I35" t="s">
-        <v>263</v>
-      </c>
-      <c r="J35">
-        <v>15</v>
       </c>
       <c r="L35">
         <v>23.94</v>
@@ -2453,17 +2438,17 @@
       <c r="G36">
         <v>60</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="s">
+        <v>263</v>
+      </c>
+      <c r="I36">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>20</v>
+      </c>
+      <c r="K36">
         <v>560</v>
-      </c>
-      <c r="I36" t="s">
-        <v>263</v>
-      </c>
-      <c r="J36">
-        <v>17</v>
-      </c>
-      <c r="K36">
-        <v>20</v>
       </c>
       <c r="L36">
         <v>24.26</v>
@@ -2494,14 +2479,14 @@
       <c r="G37">
         <v>180</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="s">
+        <v>263</v>
+      </c>
+      <c r="I37">
+        <v>14</v>
+      </c>
+      <c r="K37">
         <v>531</v>
-      </c>
-      <c r="I37" t="s">
-        <v>263</v>
-      </c>
-      <c r="J37">
-        <v>14</v>
       </c>
       <c r="L37">
         <v>24.98</v>
@@ -2529,14 +2514,14 @@
       <c r="G38">
         <v>100</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="s">
+        <v>263</v>
+      </c>
+      <c r="J38">
+        <v>11</v>
+      </c>
+      <c r="K38">
         <v>553</v>
-      </c>
-      <c r="I38" t="s">
-        <v>263</v>
-      </c>
-      <c r="K38">
-        <v>11</v>
       </c>
       <c r="L38">
         <v>23.03</v>
@@ -2564,11 +2549,11 @@
       <c r="G39">
         <v>95</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="s">
+        <v>262</v>
+      </c>
+      <c r="K39">
         <v>529</v>
-      </c>
-      <c r="I39" t="s">
-        <v>262</v>
       </c>
       <c r="L39">
         <v>24.6</v>
@@ -2596,14 +2581,14 @@
       <c r="G40">
         <v>62</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="s">
+        <v>263</v>
+      </c>
+      <c r="I40">
+        <v>22</v>
+      </c>
+      <c r="K40">
         <v>608</v>
-      </c>
-      <c r="I40" t="s">
-        <v>263</v>
-      </c>
-      <c r="J40">
-        <v>22</v>
       </c>
       <c r="L40">
         <v>22.79</v>
@@ -2631,14 +2616,14 @@
       <c r="G41">
         <v>55</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="s">
+        <v>263</v>
+      </c>
+      <c r="J41">
+        <v>25</v>
+      </c>
+      <c r="K41">
         <v>555</v>
-      </c>
-      <c r="I41" t="s">
-        <v>263</v>
-      </c>
-      <c r="K41">
-        <v>25</v>
       </c>
       <c r="L41">
         <v>24.79</v>
@@ -2669,17 +2654,17 @@
       <c r="G42">
         <v>101</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="s">
+        <v>263</v>
+      </c>
+      <c r="I42">
+        <v>13</v>
+      </c>
+      <c r="J42">
+        <v>14</v>
+      </c>
+      <c r="K42">
         <v>565</v>
-      </c>
-      <c r="I42" t="s">
-        <v>263</v>
-      </c>
-      <c r="J42">
-        <v>13</v>
-      </c>
-      <c r="K42">
-        <v>14</v>
       </c>
       <c r="L42">
         <v>23.81</v>
@@ -2710,14 +2695,14 @@
       <c r="G43">
         <v>130</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="s">
+        <v>263</v>
+      </c>
+      <c r="I43">
+        <v>16</v>
+      </c>
+      <c r="K43">
         <v>498</v>
-      </c>
-      <c r="I43" t="s">
-        <v>263</v>
-      </c>
-      <c r="J43">
-        <v>16</v>
       </c>
       <c r="L43">
         <v>24.37</v>
@@ -2745,14 +2730,14 @@
       <c r="G44">
         <v>77</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="s">
+        <v>263</v>
+      </c>
+      <c r="I44">
+        <v>14</v>
+      </c>
+      <c r="K44">
         <v>548</v>
-      </c>
-      <c r="I44" t="s">
-        <v>263</v>
-      </c>
-      <c r="J44">
-        <v>14</v>
       </c>
       <c r="L44">
         <v>27.2</v>
@@ -2780,14 +2765,14 @@
       <c r="G45">
         <v>70</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="s">
+        <v>263</v>
+      </c>
+      <c r="J45">
+        <v>14</v>
+      </c>
+      <c r="K45">
         <v>537</v>
-      </c>
-      <c r="I45" t="s">
-        <v>263</v>
-      </c>
-      <c r="K45">
-        <v>14</v>
       </c>
       <c r="L45">
         <v>25.24</v>
@@ -2818,14 +2803,14 @@
       <c r="G46">
         <v>95</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="s">
+        <v>263</v>
+      </c>
+      <c r="J46">
+        <v>28</v>
+      </c>
+      <c r="K46">
         <v>573</v>
-      </c>
-      <c r="I46" t="s">
-        <v>263</v>
-      </c>
-      <c r="K46">
-        <v>28</v>
       </c>
       <c r="L46">
         <v>23.87</v>
@@ -2856,14 +2841,14 @@
       <c r="G47">
         <v>176</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="s">
+        <v>263</v>
+      </c>
+      <c r="I47">
+        <v>19</v>
+      </c>
+      <c r="K47">
         <v>570</v>
-      </c>
-      <c r="I47" t="s">
-        <v>263</v>
-      </c>
-      <c r="J47">
-        <v>19</v>
       </c>
       <c r="L47">
         <v>22.64</v>
@@ -2894,14 +2879,14 @@
       <c r="G48">
         <v>95</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="s">
+        <v>262</v>
+      </c>
+      <c r="I48">
+        <v>16</v>
+      </c>
+      <c r="K48">
         <v>540</v>
-      </c>
-      <c r="I48" t="s">
-        <v>262</v>
-      </c>
-      <c r="J48">
-        <v>16</v>
       </c>
       <c r="L48">
         <v>21.99</v>
@@ -2929,11 +2914,11 @@
       <c r="G49">
         <v>100</v>
       </c>
-      <c r="H49">
+      <c r="I49">
+        <v>19</v>
+      </c>
+      <c r="K49">
         <v>550</v>
-      </c>
-      <c r="J49">
-        <v>19</v>
       </c>
       <c r="L49">
         <v>26.68</v>
@@ -2964,17 +2949,17 @@
       <c r="G50">
         <v>86</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="s">
+        <v>263</v>
+      </c>
+      <c r="I50">
+        <v>26</v>
+      </c>
+      <c r="J50">
+        <v>20</v>
+      </c>
+      <c r="K50">
         <v>600</v>
-      </c>
-      <c r="I50" t="s">
-        <v>263</v>
-      </c>
-      <c r="J50">
-        <v>26</v>
-      </c>
-      <c r="K50">
-        <v>20</v>
       </c>
       <c r="L50">
         <v>24.5</v>
@@ -3002,14 +2987,14 @@
       <c r="G51">
         <v>67</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="s">
+        <v>262</v>
+      </c>
+      <c r="I51">
+        <v>23.3</v>
+      </c>
+      <c r="K51">
         <v>522</v>
-      </c>
-      <c r="I51" t="s">
-        <v>262</v>
-      </c>
-      <c r="J51">
-        <v>23.3</v>
       </c>
       <c r="L51">
         <v>23</v>
@@ -3037,14 +3022,14 @@
       <c r="G52">
         <v>93</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="s">
+        <v>262</v>
+      </c>
+      <c r="I52">
+        <v>19</v>
+      </c>
+      <c r="K52">
         <v>541</v>
-      </c>
-      <c r="I52" t="s">
-        <v>262</v>
-      </c>
-      <c r="J52">
-        <v>19</v>
       </c>
       <c r="L52">
         <v>24.06</v>
@@ -3072,14 +3057,14 @@
       <c r="G53">
         <v>82</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="s">
+        <v>262</v>
+      </c>
+      <c r="I53">
+        <v>14</v>
+      </c>
+      <c r="K53">
         <v>560</v>
-      </c>
-      <c r="I53" t="s">
-        <v>262</v>
-      </c>
-      <c r="J53">
-        <v>14</v>
       </c>
       <c r="L53">
         <v>22.76</v>
@@ -3107,14 +3092,14 @@
       <c r="G54">
         <v>100</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="s">
+        <v>263</v>
+      </c>
+      <c r="I54">
+        <v>14</v>
+      </c>
+      <c r="K54">
         <v>535</v>
-      </c>
-      <c r="I54" t="s">
-        <v>263</v>
-      </c>
-      <c r="J54">
-        <v>14</v>
       </c>
       <c r="L54">
         <v>22.94</v>
@@ -3142,14 +3127,14 @@
       <c r="G55">
         <v>95</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="s">
+        <v>262</v>
+      </c>
+      <c r="I55">
+        <v>22</v>
+      </c>
+      <c r="K55">
         <v>612</v>
-      </c>
-      <c r="I55" t="s">
-        <v>262</v>
-      </c>
-      <c r="J55">
-        <v>22</v>
       </c>
       <c r="L55">
         <v>26.25</v>
@@ -3180,14 +3165,14 @@
       <c r="G56">
         <v>105</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="s">
+        <v>263</v>
+      </c>
+      <c r="I56">
+        <v>11</v>
+      </c>
+      <c r="K56">
         <v>485</v>
-      </c>
-      <c r="I56" t="s">
-        <v>263</v>
-      </c>
-      <c r="J56">
-        <v>11</v>
       </c>
       <c r="L56">
         <v>22.68</v>
@@ -3215,14 +3200,14 @@
       <c r="G57">
         <v>60</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="s">
+        <v>263</v>
+      </c>
+      <c r="I57">
+        <v>12</v>
+      </c>
+      <c r="K57">
         <v>493</v>
-      </c>
-      <c r="I57" t="s">
-        <v>263</v>
-      </c>
-      <c r="J57">
-        <v>12</v>
       </c>
       <c r="L57">
         <v>23.1</v>
@@ -3250,14 +3235,14 @@
       <c r="G58">
         <v>88</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="s">
+        <v>262</v>
+      </c>
+      <c r="I58">
+        <v>16</v>
+      </c>
+      <c r="K58">
         <v>501</v>
-      </c>
-      <c r="I58" t="s">
-        <v>262</v>
-      </c>
-      <c r="J58">
-        <v>16</v>
       </c>
       <c r="L58">
         <v>22.58</v>
@@ -3288,14 +3273,14 @@
       <c r="G59">
         <v>73</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="s">
+        <v>262</v>
+      </c>
+      <c r="I59">
+        <v>10</v>
+      </c>
+      <c r="K59">
         <v>499</v>
-      </c>
-      <c r="I59" t="s">
-        <v>262</v>
-      </c>
-      <c r="J59">
-        <v>10</v>
       </c>
       <c r="L59">
         <v>23.68</v>
@@ -3323,14 +3308,14 @@
       <c r="G60">
         <v>97</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="s">
+        <v>263</v>
+      </c>
+      <c r="I60">
+        <v>12</v>
+      </c>
+      <c r="K60">
         <v>527</v>
-      </c>
-      <c r="I60" t="s">
-        <v>263</v>
-      </c>
-      <c r="J60">
-        <v>12</v>
       </c>
       <c r="L60">
         <v>23.95</v>
@@ -3358,14 +3343,14 @@
       <c r="G61">
         <v>73</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="s">
+        <v>263</v>
+      </c>
+      <c r="I61">
+        <v>16</v>
+      </c>
+      <c r="K61">
         <v>523</v>
-      </c>
-      <c r="I61" t="s">
-        <v>263</v>
-      </c>
-      <c r="J61">
-        <v>16</v>
       </c>
       <c r="L61">
         <v>22.7</v>
@@ -3393,14 +3378,14 @@
       <c r="G62">
         <v>75</v>
       </c>
-      <c r="H62">
+      <c r="H62" t="s">
+        <v>263</v>
+      </c>
+      <c r="J62">
+        <v>20</v>
+      </c>
+      <c r="K62">
         <v>606</v>
-      </c>
-      <c r="I62" t="s">
-        <v>263</v>
-      </c>
-      <c r="K62">
-        <v>20</v>
       </c>
       <c r="L62">
         <v>23.96</v>
@@ -3422,11 +3407,11 @@
       <c r="D63" t="s">
         <v>259</v>
       </c>
-      <c r="H63">
+      <c r="H63" t="s">
+        <v>263</v>
+      </c>
+      <c r="K63">
         <v>545</v>
-      </c>
-      <c r="I63" t="s">
-        <v>263</v>
       </c>
       <c r="L63">
         <v>23.92</v>
@@ -3454,14 +3439,14 @@
       <c r="G64">
         <v>90</v>
       </c>
-      <c r="H64">
+      <c r="H64" t="s">
+        <v>262</v>
+      </c>
+      <c r="I64">
+        <v>18</v>
+      </c>
+      <c r="K64">
         <v>492</v>
-      </c>
-      <c r="I64" t="s">
-        <v>262</v>
-      </c>
-      <c r="J64">
-        <v>18</v>
       </c>
       <c r="L64">
         <v>22.91</v>
@@ -3489,14 +3474,14 @@
       <c r="G65">
         <v>80</v>
       </c>
-      <c r="H65">
+      <c r="H65" t="s">
+        <v>263</v>
+      </c>
+      <c r="J65">
+        <v>16</v>
+      </c>
+      <c r="K65">
         <v>518</v>
-      </c>
-      <c r="I65" t="s">
-        <v>263</v>
-      </c>
-      <c r="K65">
-        <v>16</v>
       </c>
       <c r="L65">
         <v>23.8</v>
@@ -3527,14 +3512,14 @@
       <c r="G66">
         <v>180</v>
       </c>
-      <c r="H66">
+      <c r="H66" t="s">
+        <v>263</v>
+      </c>
+      <c r="I66">
+        <v>12</v>
+      </c>
+      <c r="K66">
         <v>447</v>
-      </c>
-      <c r="I66" t="s">
-        <v>263</v>
-      </c>
-      <c r="J66">
-        <v>12</v>
       </c>
       <c r="L66">
         <v>23.37</v>
@@ -3562,14 +3547,14 @@
       <c r="G67">
         <v>109</v>
       </c>
-      <c r="H67">
+      <c r="H67" t="s">
+        <v>262</v>
+      </c>
+      <c r="I67">
+        <v>14</v>
+      </c>
+      <c r="K67">
         <v>508</v>
-      </c>
-      <c r="I67" t="s">
-        <v>262</v>
-      </c>
-      <c r="J67">
-        <v>14</v>
       </c>
       <c r="L67">
         <v>22.77</v>
@@ -3597,14 +3582,14 @@
       <c r="G68">
         <v>90</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="s">
+        <v>263</v>
+      </c>
+      <c r="I68">
+        <v>13</v>
+      </c>
+      <c r="K68">
         <v>526</v>
-      </c>
-      <c r="I68" t="s">
-        <v>263</v>
-      </c>
-      <c r="J68">
-        <v>13</v>
       </c>
       <c r="L68">
         <v>23.9</v>
@@ -3632,14 +3617,14 @@
       <c r="G69">
         <v>85</v>
       </c>
-      <c r="H69">
+      <c r="H69" t="s">
+        <v>262</v>
+      </c>
+      <c r="I69">
+        <v>16</v>
+      </c>
+      <c r="K69">
         <v>527</v>
-      </c>
-      <c r="I69" t="s">
-        <v>262</v>
-      </c>
-      <c r="J69">
-        <v>16</v>
       </c>
       <c r="L69">
         <v>22.63</v>
@@ -3667,11 +3652,11 @@
       <c r="G70">
         <v>80</v>
       </c>
-      <c r="H70">
+      <c r="H70" t="s">
+        <v>262</v>
+      </c>
+      <c r="K70">
         <v>558</v>
-      </c>
-      <c r="I70" t="s">
-        <v>262</v>
       </c>
       <c r="L70">
         <v>22.72</v>
@@ -3699,17 +3684,17 @@
       <c r="G71">
         <v>65</v>
       </c>
-      <c r="H71">
+      <c r="H71" t="s">
+        <v>263</v>
+      </c>
+      <c r="I71">
+        <v>18</v>
+      </c>
+      <c r="J71">
+        <v>13</v>
+      </c>
+      <c r="K71">
         <v>607</v>
-      </c>
-      <c r="I71" t="s">
-        <v>263</v>
-      </c>
-      <c r="J71">
-        <v>18</v>
-      </c>
-      <c r="K71">
-        <v>13</v>
       </c>
       <c r="L71">
         <v>22.69</v>
@@ -3740,14 +3725,14 @@
       <c r="G72">
         <v>13</v>
       </c>
-      <c r="H72">
+      <c r="H72" t="s">
+        <v>263</v>
+      </c>
+      <c r="I72">
+        <v>18</v>
+      </c>
+      <c r="K72">
         <v>602</v>
-      </c>
-      <c r="I72" t="s">
-        <v>263</v>
-      </c>
-      <c r="J72">
-        <v>18</v>
       </c>
       <c r="L72">
         <v>22.59</v>
@@ -3775,14 +3760,14 @@
       <c r="G73">
         <v>70</v>
       </c>
-      <c r="H73">
+      <c r="H73" t="s">
+        <v>262</v>
+      </c>
+      <c r="I73">
+        <v>17</v>
+      </c>
+      <c r="K73">
         <v>564</v>
-      </c>
-      <c r="I73" t="s">
-        <v>262</v>
-      </c>
-      <c r="J73">
-        <v>17</v>
       </c>
       <c r="L73">
         <v>22.96</v>
@@ -3810,14 +3795,14 @@
       <c r="G74">
         <v>70</v>
       </c>
-      <c r="H74">
+      <c r="H74" t="s">
+        <v>263</v>
+      </c>
+      <c r="I74">
+        <v>12</v>
+      </c>
+      <c r="K74">
         <v>567</v>
-      </c>
-      <c r="I74" t="s">
-        <v>263</v>
-      </c>
-      <c r="J74">
-        <v>12</v>
       </c>
       <c r="L74">
         <v>26</v>
@@ -3845,14 +3830,14 @@
       <c r="G75">
         <v>70</v>
       </c>
-      <c r="H75">
+      <c r="H75" t="s">
+        <v>263</v>
+      </c>
+      <c r="I75">
+        <v>9</v>
+      </c>
+      <c r="K75">
         <v>482</v>
-      </c>
-      <c r="I75" t="s">
-        <v>263</v>
-      </c>
-      <c r="J75">
-        <v>9</v>
       </c>
       <c r="L75">
         <v>22.68</v>
@@ -3880,14 +3865,14 @@
       <c r="G76">
         <v>113</v>
       </c>
-      <c r="H76">
+      <c r="H76" t="s">
+        <v>263</v>
+      </c>
+      <c r="I76">
+        <v>15</v>
+      </c>
+      <c r="K76">
         <v>530</v>
-      </c>
-      <c r="I76" t="s">
-        <v>263</v>
-      </c>
-      <c r="J76">
-        <v>15</v>
       </c>
       <c r="L76">
         <v>26.02</v>
@@ -3915,14 +3900,14 @@
       <c r="G77">
         <v>70</v>
       </c>
-      <c r="H77">
+      <c r="H77" t="s">
+        <v>263</v>
+      </c>
+      <c r="J77">
+        <v>18</v>
+      </c>
+      <c r="K77">
         <v>535</v>
-      </c>
-      <c r="I77" t="s">
-        <v>263</v>
-      </c>
-      <c r="K77">
-        <v>18</v>
       </c>
       <c r="L77">
         <v>23.66</v>
@@ -3953,14 +3938,14 @@
       <c r="G78">
         <v>81</v>
       </c>
-      <c r="H78">
+      <c r="H78" t="s">
+        <v>263</v>
+      </c>
+      <c r="I78">
+        <v>13</v>
+      </c>
+      <c r="K78">
         <v>493</v>
-      </c>
-      <c r="I78" t="s">
-        <v>263</v>
-      </c>
-      <c r="J78">
-        <v>13</v>
       </c>
       <c r="L78">
         <v>22.07</v>
@@ -3988,14 +3973,14 @@
       <c r="G79">
         <v>88</v>
       </c>
-      <c r="H79">
+      <c r="H79" t="s">
+        <v>262</v>
+      </c>
+      <c r="J79">
+        <v>29</v>
+      </c>
+      <c r="K79">
         <v>550</v>
-      </c>
-      <c r="I79" t="s">
-        <v>262</v>
-      </c>
-      <c r="K79">
-        <v>29</v>
       </c>
       <c r="L79">
         <v>22.63</v>
@@ -4026,14 +4011,14 @@
       <c r="G80">
         <v>80</v>
       </c>
-      <c r="H80">
+      <c r="H80" t="s">
+        <v>263</v>
+      </c>
+      <c r="I80">
+        <v>13</v>
+      </c>
+      <c r="K80">
         <v>501</v>
-      </c>
-      <c r="I80" t="s">
-        <v>263</v>
-      </c>
-      <c r="J80">
-        <v>13</v>
       </c>
       <c r="L80">
         <v>22.79</v>
@@ -4064,14 +4049,14 @@
       <c r="G81">
         <v>160</v>
       </c>
-      <c r="H81">
+      <c r="H81" t="s">
+        <v>263</v>
+      </c>
+      <c r="I81">
+        <v>10</v>
+      </c>
+      <c r="K81">
         <v>509</v>
-      </c>
-      <c r="I81" t="s">
-        <v>263</v>
-      </c>
-      <c r="J81">
-        <v>10</v>
       </c>
       <c r="L81">
         <v>23.61</v>
@@ -4099,14 +4084,14 @@
       <c r="G82">
         <v>87</v>
       </c>
-      <c r="H82">
+      <c r="H82" t="s">
+        <v>263</v>
+      </c>
+      <c r="I82">
+        <v>14</v>
+      </c>
+      <c r="K82">
         <v>531</v>
-      </c>
-      <c r="I82" t="s">
-        <v>263</v>
-      </c>
-      <c r="J82">
-        <v>14</v>
       </c>
       <c r="L82">
         <v>23.78</v>
@@ -4131,14 +4116,14 @@
       <c r="G83">
         <v>80</v>
       </c>
-      <c r="H83">
+      <c r="H83" t="s">
+        <v>263</v>
+      </c>
+      <c r="J83">
+        <v>18</v>
+      </c>
+      <c r="K83">
         <v>529</v>
-      </c>
-      <c r="I83" t="s">
-        <v>263</v>
-      </c>
-      <c r="K83">
-        <v>18</v>
       </c>
       <c r="L83">
         <v>23.47</v>
@@ -4169,14 +4154,14 @@
       <c r="G84">
         <v>90</v>
       </c>
-      <c r="H84">
+      <c r="H84" t="s">
+        <v>263</v>
+      </c>
+      <c r="I84">
+        <v>16</v>
+      </c>
+      <c r="K84">
         <v>600</v>
-      </c>
-      <c r="I84" t="s">
-        <v>263</v>
-      </c>
-      <c r="J84">
-        <v>16</v>
       </c>
       <c r="L84">
         <v>21.04</v>
@@ -4204,14 +4189,14 @@
       <c r="G85">
         <v>73</v>
       </c>
-      <c r="H85">
+      <c r="H85" t="s">
+        <v>262</v>
+      </c>
+      <c r="I85">
+        <v>15</v>
+      </c>
+      <c r="K85">
         <v>537</v>
-      </c>
-      <c r="I85" t="s">
-        <v>262</v>
-      </c>
-      <c r="J85">
-        <v>15</v>
       </c>
       <c r="L85">
         <v>22.42</v>
@@ -4239,17 +4224,17 @@
       <c r="G86">
         <v>165</v>
       </c>
-      <c r="H86">
+      <c r="H86" t="s">
+        <v>263</v>
+      </c>
+      <c r="I86">
+        <v>13</v>
+      </c>
+      <c r="J86">
+        <v>14</v>
+      </c>
+      <c r="K86">
         <v>511</v>
-      </c>
-      <c r="I86" t="s">
-        <v>263</v>
-      </c>
-      <c r="J86">
-        <v>13</v>
-      </c>
-      <c r="K86">
-        <v>14</v>
       </c>
       <c r="L86">
         <v>23.43</v>
@@ -4280,17 +4265,17 @@
       <c r="G87">
         <v>80</v>
       </c>
-      <c r="H87">
+      <c r="H87" t="s">
+        <v>263</v>
+      </c>
+      <c r="I87">
+        <v>23</v>
+      </c>
+      <c r="J87">
+        <v>14</v>
+      </c>
+      <c r="K87">
         <v>526</v>
-      </c>
-      <c r="I87" t="s">
-        <v>263</v>
-      </c>
-      <c r="J87">
-        <v>23</v>
-      </c>
-      <c r="K87">
-        <v>14</v>
       </c>
       <c r="L87">
         <v>24.57</v>
@@ -4321,14 +4306,14 @@
       <c r="G88">
         <v>100</v>
       </c>
-      <c r="H88">
+      <c r="H88" t="s">
+        <v>262</v>
+      </c>
+      <c r="I88">
+        <v>16</v>
+      </c>
+      <c r="K88">
         <v>508</v>
-      </c>
-      <c r="I88" t="s">
-        <v>262</v>
-      </c>
-      <c r="J88">
-        <v>16</v>
       </c>
       <c r="L88">
         <v>23.39</v>
@@ -4356,14 +4341,14 @@
       <c r="G89">
         <v>102</v>
       </c>
-      <c r="H89">
+      <c r="H89" t="s">
+        <v>263</v>
+      </c>
+      <c r="I89">
+        <v>15</v>
+      </c>
+      <c r="K89">
         <v>590</v>
-      </c>
-      <c r="I89" t="s">
-        <v>263</v>
-      </c>
-      <c r="J89">
-        <v>15</v>
       </c>
       <c r="L89">
         <v>23</v>
@@ -4391,14 +4376,14 @@
       <c r="G90">
         <v>130</v>
       </c>
-      <c r="H90">
+      <c r="H90" t="s">
+        <v>263</v>
+      </c>
+      <c r="J90">
+        <v>14</v>
+      </c>
+      <c r="K90">
         <v>477</v>
-      </c>
-      <c r="I90" t="s">
-        <v>263</v>
-      </c>
-      <c r="K90">
-        <v>14</v>
       </c>
       <c r="L90">
         <v>23.79</v>
@@ -4429,14 +4414,14 @@
       <c r="G91">
         <v>142</v>
       </c>
-      <c r="H91">
+      <c r="H91" t="s">
+        <v>263</v>
+      </c>
+      <c r="I91">
+        <v>21</v>
+      </c>
+      <c r="K91">
         <v>566</v>
-      </c>
-      <c r="I91" t="s">
-        <v>263</v>
-      </c>
-      <c r="J91">
-        <v>21</v>
       </c>
       <c r="L91">
         <v>23.8</v>
@@ -4461,14 +4446,14 @@
       <c r="G92">
         <v>20</v>
       </c>
-      <c r="H92">
+      <c r="H92" t="s">
+        <v>262</v>
+      </c>
+      <c r="I92">
+        <v>15</v>
+      </c>
+      <c r="K92">
         <v>526</v>
-      </c>
-      <c r="I92" t="s">
-        <v>262</v>
-      </c>
-      <c r="J92">
-        <v>15</v>
       </c>
       <c r="L92">
         <v>22.92</v>
@@ -4499,14 +4484,14 @@
       <c r="G93">
         <v>75</v>
       </c>
-      <c r="H93">
+      <c r="H93" t="s">
+        <v>263</v>
+      </c>
+      <c r="J93">
+        <v>18</v>
+      </c>
+      <c r="K93">
         <v>550</v>
-      </c>
-      <c r="I93" t="s">
-        <v>263</v>
-      </c>
-      <c r="K93">
-        <v>18</v>
       </c>
       <c r="L93">
         <v>23.09</v>
@@ -4537,14 +4522,14 @@
       <c r="G94">
         <v>174</v>
       </c>
-      <c r="H94">
+      <c r="H94" t="s">
+        <v>262</v>
+      </c>
+      <c r="I94">
+        <v>14</v>
+      </c>
+      <c r="K94">
         <v>491</v>
-      </c>
-      <c r="I94" t="s">
-        <v>262</v>
-      </c>
-      <c r="J94">
-        <v>14</v>
       </c>
       <c r="L94">
         <v>22.66</v>
@@ -4572,14 +4557,14 @@
       <c r="G95">
         <v>85</v>
       </c>
-      <c r="H95">
+      <c r="H95" t="s">
+        <v>263</v>
+      </c>
+      <c r="I95">
+        <v>16</v>
+      </c>
+      <c r="K95">
         <v>531</v>
-      </c>
-      <c r="I95" t="s">
-        <v>263</v>
-      </c>
-      <c r="J95">
-        <v>16</v>
       </c>
       <c r="L95">
         <v>23.39</v>
@@ -4607,14 +4592,14 @@
       <c r="G96">
         <v>68</v>
       </c>
-      <c r="H96">
+      <c r="H96" t="s">
+        <v>263</v>
+      </c>
+      <c r="I96">
+        <v>16</v>
+      </c>
+      <c r="K96">
         <v>493</v>
-      </c>
-      <c r="I96" t="s">
-        <v>263</v>
-      </c>
-      <c r="J96">
-        <v>16</v>
       </c>
       <c r="L96">
         <v>21.91</v>
@@ -4642,14 +4627,14 @@
       <c r="G97">
         <v>85</v>
       </c>
-      <c r="H97">
+      <c r="H97" t="s">
+        <v>263</v>
+      </c>
+      <c r="I97">
+        <v>12</v>
+      </c>
+      <c r="K97">
         <v>535</v>
-      </c>
-      <c r="I97" t="s">
-        <v>263</v>
-      </c>
-      <c r="J97">
-        <v>12</v>
       </c>
       <c r="L97">
         <v>24.63</v>
@@ -4677,17 +4662,17 @@
       <c r="G98">
         <v>56</v>
       </c>
-      <c r="H98">
+      <c r="H98" t="s">
+        <v>263</v>
+      </c>
+      <c r="I98">
+        <v>20</v>
+      </c>
+      <c r="J98">
+        <v>17</v>
+      </c>
+      <c r="K98">
         <v>587</v>
-      </c>
-      <c r="I98" t="s">
-        <v>263</v>
-      </c>
-      <c r="J98">
-        <v>20</v>
-      </c>
-      <c r="K98">
-        <v>17</v>
       </c>
       <c r="L98">
         <v>27.75</v>
@@ -4718,14 +4703,14 @@
       <c r="G99">
         <v>110</v>
       </c>
-      <c r="H99">
+      <c r="H99" t="s">
+        <v>262</v>
+      </c>
+      <c r="I99">
+        <v>11</v>
+      </c>
+      <c r="K99">
         <v>526</v>
-      </c>
-      <c r="I99" t="s">
-        <v>262</v>
-      </c>
-      <c r="J99">
-        <v>11</v>
       </c>
       <c r="L99">
         <v>24.4</v>
@@ -4753,14 +4738,14 @@
       <c r="G100">
         <v>92</v>
       </c>
-      <c r="H100">
+      <c r="H100" t="s">
+        <v>263</v>
+      </c>
+      <c r="I100">
+        <v>21</v>
+      </c>
+      <c r="K100">
         <v>605</v>
-      </c>
-      <c r="I100" t="s">
-        <v>263</v>
-      </c>
-      <c r="J100">
-        <v>21</v>
       </c>
       <c r="L100">
         <v>24.02</v>
@@ -4785,14 +4770,14 @@
       <c r="G101">
         <v>115</v>
       </c>
-      <c r="H101">
+      <c r="H101" t="s">
+        <v>263</v>
+      </c>
+      <c r="J101">
+        <v>16</v>
+      </c>
+      <c r="K101">
         <v>592</v>
-      </c>
-      <c r="I101" t="s">
-        <v>263</v>
-      </c>
-      <c r="K101">
-        <v>16</v>
       </c>
       <c r="L101">
         <v>23.49</v>
@@ -4823,14 +4808,14 @@
       <c r="G102">
         <v>86</v>
       </c>
-      <c r="H102">
+      <c r="H102" t="s">
+        <v>262</v>
+      </c>
+      <c r="J102">
+        <v>17</v>
+      </c>
+      <c r="K102">
         <v>514</v>
-      </c>
-      <c r="I102" t="s">
-        <v>262</v>
-      </c>
-      <c r="K102">
-        <v>17</v>
       </c>
       <c r="L102">
         <v>23.07</v>
@@ -4861,14 +4846,14 @@
       <c r="G103">
         <v>85</v>
       </c>
-      <c r="H103">
+      <c r="H103" t="s">
+        <v>263</v>
+      </c>
+      <c r="I103">
+        <v>15</v>
+      </c>
+      <c r="K103">
         <v>506</v>
-      </c>
-      <c r="I103" t="s">
-        <v>263</v>
-      </c>
-      <c r="J103">
-        <v>15</v>
       </c>
       <c r="L103">
         <v>24.5</v>
@@ -4896,14 +4881,14 @@
       <c r="G104">
         <v>7</v>
       </c>
-      <c r="H104">
+      <c r="H104" t="s">
+        <v>263</v>
+      </c>
+      <c r="I104">
+        <v>16</v>
+      </c>
+      <c r="K104">
         <v>520</v>
-      </c>
-      <c r="I104" t="s">
-        <v>263</v>
-      </c>
-      <c r="J104">
-        <v>16</v>
       </c>
       <c r="L104">
         <v>23.85</v>
@@ -4931,14 +4916,14 @@
       <c r="G105">
         <v>44</v>
       </c>
-      <c r="H105">
+      <c r="H105" t="s">
+        <v>263</v>
+      </c>
+      <c r="I105">
+        <v>16</v>
+      </c>
+      <c r="K105">
         <v>506</v>
-      </c>
-      <c r="I105" t="s">
-        <v>263</v>
-      </c>
-      <c r="J105">
-        <v>16</v>
       </c>
       <c r="L105">
         <v>23.82</v>
@@ -4963,14 +4948,14 @@
       <c r="F106">
         <v>-0.5</v>
       </c>
-      <c r="H106">
+      <c r="H106" t="s">
+        <v>262</v>
+      </c>
+      <c r="I106">
+        <v>12</v>
+      </c>
+      <c r="K106">
         <v>495</v>
-      </c>
-      <c r="I106" t="s">
-        <v>262</v>
-      </c>
-      <c r="J106">
-        <v>12</v>
       </c>
       <c r="L106">
         <v>23.09</v>
@@ -5001,14 +4986,14 @@
       <c r="G107">
         <v>105</v>
       </c>
-      <c r="H107">
+      <c r="H107" t="s">
+        <v>262</v>
+      </c>
+      <c r="I107">
+        <v>20</v>
+      </c>
+      <c r="K107">
         <v>592</v>
-      </c>
-      <c r="I107" t="s">
-        <v>262</v>
-      </c>
-      <c r="J107">
-        <v>20</v>
       </c>
       <c r="L107">
         <v>24</v>
@@ -5036,14 +5021,14 @@
       <c r="G108">
         <v>90</v>
       </c>
-      <c r="H108">
+      <c r="H108" t="s">
+        <v>263</v>
+      </c>
+      <c r="I108">
+        <v>18</v>
+      </c>
+      <c r="K108">
         <v>540</v>
-      </c>
-      <c r="I108" t="s">
-        <v>263</v>
-      </c>
-      <c r="J108">
-        <v>18</v>
       </c>
       <c r="L108">
         <v>22.03</v>
@@ -5071,14 +5056,14 @@
       <c r="G109">
         <v>35</v>
       </c>
-      <c r="H109">
+      <c r="H109" t="s">
+        <v>262</v>
+      </c>
+      <c r="I109">
+        <v>25</v>
+      </c>
+      <c r="K109">
         <v>573</v>
-      </c>
-      <c r="I109" t="s">
-        <v>262</v>
-      </c>
-      <c r="J109">
-        <v>25</v>
       </c>
       <c r="L109">
         <v>23.39</v>
@@ -5106,14 +5091,14 @@
       <c r="G110">
         <v>160</v>
       </c>
-      <c r="H110">
+      <c r="H110" t="s">
+        <v>262</v>
+      </c>
+      <c r="I110">
+        <v>16</v>
+      </c>
+      <c r="K110">
         <v>535</v>
-      </c>
-      <c r="I110" t="s">
-        <v>262</v>
-      </c>
-      <c r="J110">
-        <v>16</v>
       </c>
       <c r="L110">
         <v>22.54</v>
@@ -5141,17 +5126,17 @@
       <c r="G111">
         <v>110</v>
       </c>
-      <c r="H111">
+      <c r="H111" t="s">
+        <v>263</v>
+      </c>
+      <c r="I111">
+        <v>13</v>
+      </c>
+      <c r="J111">
+        <v>14</v>
+      </c>
+      <c r="K111">
         <v>555</v>
-      </c>
-      <c r="I111" t="s">
-        <v>263</v>
-      </c>
-      <c r="J111">
-        <v>13</v>
-      </c>
-      <c r="K111">
-        <v>14</v>
       </c>
       <c r="L111">
         <v>23.54</v>
@@ -5182,14 +5167,14 @@
       <c r="G112">
         <v>158</v>
       </c>
-      <c r="H112">
+      <c r="H112" t="s">
+        <v>262</v>
+      </c>
+      <c r="I112">
+        <v>15</v>
+      </c>
+      <c r="K112">
         <v>497</v>
-      </c>
-      <c r="I112" t="s">
-        <v>262</v>
-      </c>
-      <c r="J112">
-        <v>15</v>
       </c>
       <c r="L112">
         <v>25.64</v>
@@ -5217,14 +5202,14 @@
       <c r="G113">
         <v>80</v>
       </c>
-      <c r="H113">
+      <c r="H113" t="s">
+        <v>263</v>
+      </c>
+      <c r="J113">
+        <v>17</v>
+      </c>
+      <c r="K113">
         <v>525</v>
-      </c>
-      <c r="I113" t="s">
-        <v>263</v>
-      </c>
-      <c r="K113">
-        <v>17</v>
       </c>
       <c r="L113">
         <v>25.6</v>
@@ -5255,17 +5240,17 @@
       <c r="G114">
         <v>90</v>
       </c>
-      <c r="H114">
-        <v>543</v>
-      </c>
-      <c r="I114" t="s">
-        <v>263</v>
+      <c r="H114" t="s">
+        <v>263</v>
+      </c>
+      <c r="I114">
+        <v>16</v>
       </c>
       <c r="J114">
         <v>16</v>
       </c>
       <c r="K114">
-        <v>16</v>
+        <v>543</v>
       </c>
       <c r="L114">
         <v>22.16</v>
@@ -5296,14 +5281,14 @@
       <c r="G115">
         <v>81</v>
       </c>
-      <c r="H115">
+      <c r="H115" t="s">
+        <v>262</v>
+      </c>
+      <c r="I115">
+        <v>12</v>
+      </c>
+      <c r="K115">
         <v>523</v>
-      </c>
-      <c r="I115" t="s">
-        <v>262</v>
-      </c>
-      <c r="J115">
-        <v>12</v>
       </c>
       <c r="L115">
         <v>24.22</v>
@@ -5331,14 +5316,14 @@
       <c r="G116">
         <v>45</v>
       </c>
-      <c r="H116">
+      <c r="H116" t="s">
+        <v>262</v>
+      </c>
+      <c r="I116">
+        <v>17</v>
+      </c>
+      <c r="K116">
         <v>465</v>
-      </c>
-      <c r="I116" t="s">
-        <v>262</v>
-      </c>
-      <c r="J116">
-        <v>17</v>
       </c>
       <c r="L116">
         <v>23.8</v>
@@ -5366,14 +5351,14 @@
       <c r="G117">
         <v>175</v>
       </c>
-      <c r="H117">
+      <c r="H117" t="s">
+        <v>262</v>
+      </c>
+      <c r="I117">
+        <v>20</v>
+      </c>
+      <c r="K117">
         <v>487</v>
-      </c>
-      <c r="I117" t="s">
-        <v>262</v>
-      </c>
-      <c r="J117">
-        <v>20</v>
       </c>
       <c r="L117">
         <v>23.27</v>
@@ -5401,14 +5386,14 @@
       <c r="G118">
         <v>167</v>
       </c>
-      <c r="H118">
+      <c r="H118" t="s">
+        <v>263</v>
+      </c>
+      <c r="I118">
+        <v>21</v>
+      </c>
+      <c r="K118">
         <v>574</v>
-      </c>
-      <c r="I118" t="s">
-        <v>263</v>
-      </c>
-      <c r="J118">
-        <v>21</v>
       </c>
       <c r="L118">
         <v>25.31</v>
@@ -5436,14 +5421,14 @@
       <c r="G119">
         <v>110</v>
       </c>
-      <c r="H119">
+      <c r="H119" t="s">
+        <v>263</v>
+      </c>
+      <c r="J119">
+        <v>19</v>
+      </c>
+      <c r="K119">
         <v>562</v>
-      </c>
-      <c r="I119" t="s">
-        <v>263</v>
-      </c>
-      <c r="K119">
-        <v>19</v>
       </c>
       <c r="L119">
         <v>24.92</v>
@@ -5471,14 +5456,14 @@
       <c r="G120">
         <v>100</v>
       </c>
-      <c r="H120">
+      <c r="H120" t="s">
+        <v>263</v>
+      </c>
+      <c r="I120">
+        <v>12</v>
+      </c>
+      <c r="K120">
         <v>494</v>
-      </c>
-      <c r="I120" t="s">
-        <v>263</v>
-      </c>
-      <c r="J120">
-        <v>12</v>
       </c>
       <c r="L120">
         <v>24.23</v>
@@ -5509,14 +5494,14 @@
       <c r="G121">
         <v>99</v>
       </c>
-      <c r="H121">
+      <c r="H121" t="s">
+        <v>263</v>
+      </c>
+      <c r="I121">
+        <v>10</v>
+      </c>
+      <c r="K121">
         <v>458</v>
-      </c>
-      <c r="I121" t="s">
-        <v>263</v>
-      </c>
-      <c r="J121">
-        <v>10</v>
       </c>
       <c r="L121">
         <v>22.8</v>
@@ -5544,14 +5529,14 @@
       <c r="G122">
         <v>85</v>
       </c>
-      <c r="H122">
+      <c r="H122" t="s">
+        <v>262</v>
+      </c>
+      <c r="I122">
+        <v>17</v>
+      </c>
+      <c r="K122">
         <v>576</v>
-      </c>
-      <c r="I122" t="s">
-        <v>262</v>
-      </c>
-      <c r="J122">
-        <v>17</v>
       </c>
       <c r="L122">
         <v>23.06</v>
@@ -5576,14 +5561,14 @@
       <c r="G123">
         <v>100</v>
       </c>
-      <c r="H123">
+      <c r="H123" t="s">
+        <v>262</v>
+      </c>
+      <c r="I123">
+        <v>17</v>
+      </c>
+      <c r="K123">
         <v>587</v>
-      </c>
-      <c r="I123" t="s">
-        <v>262</v>
-      </c>
-      <c r="J123">
-        <v>17</v>
       </c>
       <c r="L123">
         <v>24.15</v>
@@ -5611,10 +5596,10 @@
       <c r="G124">
         <v>78</v>
       </c>
-      <c r="I124" t="s">
-        <v>263</v>
-      </c>
-      <c r="K124">
+      <c r="H124" t="s">
+        <v>263</v>
+      </c>
+      <c r="J124">
         <v>8</v>
       </c>
       <c r="L124">
@@ -5646,14 +5631,14 @@
       <c r="G125">
         <v>80</v>
       </c>
-      <c r="H125">
+      <c r="H125" t="s">
+        <v>263</v>
+      </c>
+      <c r="I125">
+        <v>18</v>
+      </c>
+      <c r="K125">
         <v>525</v>
-      </c>
-      <c r="I125" t="s">
-        <v>263</v>
-      </c>
-      <c r="J125">
-        <v>18</v>
       </c>
       <c r="L125">
         <v>23.87</v>
@@ -5681,14 +5666,14 @@
       <c r="G126">
         <v>120</v>
       </c>
-      <c r="H126">
+      <c r="H126" t="s">
+        <v>263</v>
+      </c>
+      <c r="J126">
+        <v>18</v>
+      </c>
+      <c r="K126">
         <v>562</v>
-      </c>
-      <c r="I126" t="s">
-        <v>263</v>
-      </c>
-      <c r="K126">
-        <v>18</v>
       </c>
       <c r="L126">
         <v>22.01</v>
@@ -5719,14 +5704,14 @@
       <c r="G127">
         <v>155</v>
       </c>
-      <c r="H127">
+      <c r="H127" t="s">
+        <v>262</v>
+      </c>
+      <c r="I127">
+        <v>12</v>
+      </c>
+      <c r="K127">
         <v>480</v>
-      </c>
-      <c r="I127" t="s">
-        <v>262</v>
-      </c>
-      <c r="J127">
-        <v>12</v>
       </c>
       <c r="L127">
         <v>24</v>
@@ -5754,14 +5739,14 @@
       <c r="G128">
         <v>4</v>
       </c>
-      <c r="H128">
+      <c r="H128" t="s">
+        <v>263</v>
+      </c>
+      <c r="J128">
+        <v>18</v>
+      </c>
+      <c r="K128">
         <v>617</v>
-      </c>
-      <c r="I128" t="s">
-        <v>263</v>
-      </c>
-      <c r="K128">
-        <v>18</v>
       </c>
       <c r="L128">
         <v>24.25</v>
@@ -5792,17 +5777,17 @@
       <c r="G129">
         <v>83</v>
       </c>
-      <c r="H129">
+      <c r="H129" t="s">
+        <v>263</v>
+      </c>
+      <c r="I129">
+        <v>13</v>
+      </c>
+      <c r="J129">
+        <v>18</v>
+      </c>
+      <c r="K129">
         <v>560</v>
-      </c>
-      <c r="I129" t="s">
-        <v>263</v>
-      </c>
-      <c r="J129">
-        <v>13</v>
-      </c>
-      <c r="K129">
-        <v>18</v>
       </c>
       <c r="L129">
         <v>22.25</v>
@@ -5833,14 +5818,14 @@
       <c r="G130">
         <v>70</v>
       </c>
-      <c r="H130">
+      <c r="H130" t="s">
+        <v>263</v>
+      </c>
+      <c r="I130">
+        <v>19</v>
+      </c>
+      <c r="K130">
         <v>490</v>
-      </c>
-      <c r="I130" t="s">
-        <v>263</v>
-      </c>
-      <c r="J130">
-        <v>19</v>
       </c>
       <c r="L130">
         <v>22.63</v>
@@ -5865,14 +5850,14 @@
       <c r="G131">
         <v>25</v>
       </c>
-      <c r="H131">
+      <c r="H131" t="s">
+        <v>262</v>
+      </c>
+      <c r="I131">
+        <v>15</v>
+      </c>
+      <c r="K131">
         <v>479</v>
-      </c>
-      <c r="I131" t="s">
-        <v>262</v>
-      </c>
-      <c r="J131">
-        <v>15</v>
       </c>
       <c r="L131">
         <v>23.51</v>
@@ -5900,14 +5885,14 @@
       <c r="G132">
         <v>87</v>
       </c>
-      <c r="H132">
+      <c r="H132" t="s">
+        <v>263</v>
+      </c>
+      <c r="J132">
+        <v>21</v>
+      </c>
+      <c r="K132">
         <v>534</v>
-      </c>
-      <c r="I132" t="s">
-        <v>263</v>
-      </c>
-      <c r="K132">
-        <v>21</v>
       </c>
       <c r="L132">
         <v>21.43</v>
@@ -5938,17 +5923,17 @@
       <c r="G133">
         <v>95</v>
       </c>
-      <c r="H133">
+      <c r="H133" t="s">
+        <v>262</v>
+      </c>
+      <c r="I133">
+        <v>23</v>
+      </c>
+      <c r="J133">
+        <v>20</v>
+      </c>
+      <c r="K133">
         <v>511</v>
-      </c>
-      <c r="I133" t="s">
-        <v>262</v>
-      </c>
-      <c r="J133">
-        <v>23</v>
-      </c>
-      <c r="K133">
-        <v>20</v>
       </c>
       <c r="M133">
         <v>-3.69</v>
@@ -5976,14 +5961,14 @@
       <c r="G134">
         <v>103</v>
       </c>
-      <c r="H134">
+      <c r="H134" t="s">
+        <v>262</v>
+      </c>
+      <c r="I134">
+        <v>19</v>
+      </c>
+      <c r="K134">
         <v>539</v>
-      </c>
-      <c r="I134" t="s">
-        <v>262</v>
-      </c>
-      <c r="J134">
-        <v>19</v>
       </c>
       <c r="L134">
         <v>23.45</v>
@@ -6011,14 +5996,14 @@
       <c r="G135">
         <v>90</v>
       </c>
-      <c r="H135">
+      <c r="H135" t="s">
+        <v>263</v>
+      </c>
+      <c r="J135">
+        <v>13</v>
+      </c>
+      <c r="K135">
         <v>626</v>
-      </c>
-      <c r="I135" t="s">
-        <v>263</v>
-      </c>
-      <c r="K135">
-        <v>13</v>
       </c>
       <c r="L135">
         <v>22.92</v>
@@ -6049,14 +6034,14 @@
       <c r="G136">
         <v>75</v>
       </c>
-      <c r="H136">
+      <c r="H136" t="s">
+        <v>262</v>
+      </c>
+      <c r="I136">
+        <v>15</v>
+      </c>
+      <c r="K136">
         <v>491</v>
-      </c>
-      <c r="I136" t="s">
-        <v>262</v>
-      </c>
-      <c r="J136">
-        <v>15</v>
       </c>
       <c r="L136">
         <v>22.83</v>
@@ -6084,14 +6069,14 @@
       <c r="G137">
         <v>95</v>
       </c>
-      <c r="H137">
+      <c r="H137" t="s">
+        <v>263</v>
+      </c>
+      <c r="I137">
+        <v>19</v>
+      </c>
+      <c r="K137">
         <v>605</v>
-      </c>
-      <c r="I137" t="s">
-        <v>263</v>
-      </c>
-      <c r="J137">
-        <v>19</v>
       </c>
       <c r="L137">
         <v>23.95</v>
@@ -6119,14 +6104,14 @@
       <c r="G138">
         <v>150</v>
       </c>
-      <c r="H138">
+      <c r="H138" t="s">
+        <v>262</v>
+      </c>
+      <c r="I138">
+        <v>12</v>
+      </c>
+      <c r="K138">
         <v>505</v>
-      </c>
-      <c r="I138" t="s">
-        <v>262</v>
-      </c>
-      <c r="J138">
-        <v>12</v>
       </c>
       <c r="L138">
         <v>23.39</v>
@@ -6154,17 +6139,17 @@
       <c r="G139">
         <v>65</v>
       </c>
-      <c r="H139">
+      <c r="H139" t="s">
+        <v>262</v>
+      </c>
+      <c r="I139">
+        <v>13</v>
+      </c>
+      <c r="J139">
+        <v>17</v>
+      </c>
+      <c r="K139">
         <v>500</v>
-      </c>
-      <c r="I139" t="s">
-        <v>262</v>
-      </c>
-      <c r="J139">
-        <v>13</v>
-      </c>
-      <c r="K139">
-        <v>17</v>
       </c>
       <c r="L139">
         <v>22.75</v>
@@ -6195,14 +6180,14 @@
       <c r="G140">
         <v>16</v>
       </c>
-      <c r="H140">
+      <c r="H140" t="s">
+        <v>263</v>
+      </c>
+      <c r="J140">
+        <v>16</v>
+      </c>
+      <c r="K140">
         <v>570</v>
-      </c>
-      <c r="I140" t="s">
-        <v>263</v>
-      </c>
-      <c r="K140">
-        <v>16</v>
       </c>
       <c r="L140">
         <v>27.87</v>
@@ -6233,14 +6218,14 @@
       <c r="G141">
         <v>50</v>
       </c>
-      <c r="H141">
+      <c r="H141" t="s">
+        <v>263</v>
+      </c>
+      <c r="I141">
+        <v>11</v>
+      </c>
+      <c r="K141">
         <v>482</v>
-      </c>
-      <c r="I141" t="s">
-        <v>263</v>
-      </c>
-      <c r="J141">
-        <v>11</v>
       </c>
       <c r="L141">
         <v>24.5</v>
@@ -6268,14 +6253,14 @@
       <c r="G142">
         <v>170</v>
       </c>
-      <c r="H142">
+      <c r="H142" t="s">
+        <v>263</v>
+      </c>
+      <c r="J142">
+        <v>16</v>
+      </c>
+      <c r="K142">
         <v>481</v>
-      </c>
-      <c r="I142" t="s">
-        <v>263</v>
-      </c>
-      <c r="K142">
-        <v>16</v>
       </c>
       <c r="L142">
         <v>28.14</v>
@@ -6303,14 +6288,14 @@
       <c r="G143">
         <v>100</v>
       </c>
-      <c r="H143">
+      <c r="H143" t="s">
+        <v>263</v>
+      </c>
+      <c r="J143">
+        <v>28</v>
+      </c>
+      <c r="K143">
         <v>540</v>
-      </c>
-      <c r="I143" t="s">
-        <v>263</v>
-      </c>
-      <c r="K143">
-        <v>28</v>
       </c>
       <c r="L143">
         <v>21.49</v>
@@ -6341,14 +6326,14 @@
       <c r="G144">
         <v>155</v>
       </c>
-      <c r="H144">
+      <c r="H144" t="s">
+        <v>263</v>
+      </c>
+      <c r="I144">
+        <v>18</v>
+      </c>
+      <c r="K144">
         <v>608</v>
-      </c>
-      <c r="I144" t="s">
-        <v>263</v>
-      </c>
-      <c r="J144">
-        <v>18</v>
       </c>
       <c r="L144">
         <v>21.56</v>
@@ -6376,14 +6361,14 @@
       <c r="G145">
         <v>100</v>
       </c>
-      <c r="H145">
+      <c r="H145" t="s">
+        <v>262</v>
+      </c>
+      <c r="I145">
+        <v>20</v>
+      </c>
+      <c r="K145">
         <v>568</v>
-      </c>
-      <c r="I145" t="s">
-        <v>262</v>
-      </c>
-      <c r="J145">
-        <v>20</v>
       </c>
       <c r="L145">
         <v>23.62</v>
@@ -6414,14 +6399,14 @@
       <c r="G146">
         <v>155</v>
       </c>
-      <c r="H146">
+      <c r="H146" t="s">
+        <v>262</v>
+      </c>
+      <c r="I146">
+        <v>13</v>
+      </c>
+      <c r="K146">
         <v>545</v>
-      </c>
-      <c r="I146" t="s">
-        <v>262</v>
-      </c>
-      <c r="J146">
-        <v>13</v>
       </c>
       <c r="L146">
         <v>22.59</v>
@@ -6449,14 +6434,14 @@
       <c r="G147">
         <v>90</v>
       </c>
-      <c r="H147">
+      <c r="H147" t="s">
+        <v>263</v>
+      </c>
+      <c r="I147">
+        <v>16</v>
+      </c>
+      <c r="K147">
         <v>583</v>
-      </c>
-      <c r="I147" t="s">
-        <v>263</v>
-      </c>
-      <c r="J147">
-        <v>16</v>
       </c>
       <c r="L147">
         <v>23.76</v>
@@ -6481,14 +6466,14 @@
       <c r="G148">
         <v>-1</v>
       </c>
-      <c r="H148">
+      <c r="H148" t="s">
+        <v>262</v>
+      </c>
+      <c r="I148">
+        <v>21</v>
+      </c>
+      <c r="K148">
         <v>523</v>
-      </c>
-      <c r="I148" t="s">
-        <v>262</v>
-      </c>
-      <c r="J148">
-        <v>21</v>
       </c>
       <c r="L148">
         <v>25.51</v>
@@ -6519,14 +6504,14 @@
       <c r="G149">
         <v>145</v>
       </c>
-      <c r="H149">
+      <c r="H149" t="s">
+        <v>263</v>
+      </c>
+      <c r="J149">
+        <v>20</v>
+      </c>
+      <c r="K149">
         <v>577</v>
-      </c>
-      <c r="I149" t="s">
-        <v>263</v>
-      </c>
-      <c r="K149">
-        <v>20</v>
       </c>
       <c r="L149">
         <v>24.77</v>
@@ -6557,14 +6542,14 @@
       <c r="G150">
         <v>19</v>
       </c>
-      <c r="H150">
+      <c r="H150" t="s">
+        <v>262</v>
+      </c>
+      <c r="I150">
+        <v>16</v>
+      </c>
+      <c r="K150">
         <v>529</v>
-      </c>
-      <c r="I150" t="s">
-        <v>262</v>
-      </c>
-      <c r="J150">
-        <v>16</v>
       </c>
       <c r="L150">
         <v>23.82</v>
@@ -6592,10 +6577,10 @@
       <c r="G151">
         <v>100</v>
       </c>
-      <c r="I151" t="s">
-        <v>263</v>
-      </c>
-      <c r="K151">
+      <c r="H151" t="s">
+        <v>263</v>
+      </c>
+      <c r="J151">
         <v>17</v>
       </c>
       <c r="L151">
@@ -6627,14 +6612,14 @@
       <c r="G152">
         <v>70</v>
       </c>
-      <c r="H152">
+      <c r="H152" t="s">
+        <v>263</v>
+      </c>
+      <c r="J152">
+        <v>26</v>
+      </c>
+      <c r="K152">
         <v>564</v>
-      </c>
-      <c r="I152" t="s">
-        <v>263</v>
-      </c>
-      <c r="K152">
-        <v>26</v>
       </c>
       <c r="L152">
         <v>26.02</v>
@@ -6665,14 +6650,14 @@
       <c r="G153">
         <v>5</v>
       </c>
-      <c r="H153">
+      <c r="H153" t="s">
+        <v>263</v>
+      </c>
+      <c r="I153">
+        <v>14</v>
+      </c>
+      <c r="K153">
         <v>577</v>
-      </c>
-      <c r="I153" t="s">
-        <v>263</v>
-      </c>
-      <c r="J153">
-        <v>14</v>
       </c>
       <c r="L153">
         <v>22</v>
@@ -6700,14 +6685,14 @@
       <c r="G154">
         <v>95</v>
       </c>
-      <c r="H154">
+      <c r="H154" t="s">
+        <v>262</v>
+      </c>
+      <c r="I154">
+        <v>15</v>
+      </c>
+      <c r="K154">
         <v>554</v>
-      </c>
-      <c r="I154" t="s">
-        <v>262</v>
-      </c>
-      <c r="J154">
-        <v>15</v>
       </c>
       <c r="L154">
         <v>24.89</v>
@@ -6735,14 +6720,14 @@
       <c r="G155">
         <v>40</v>
       </c>
-      <c r="H155">
+      <c r="H155" t="s">
+        <v>262</v>
+      </c>
+      <c r="I155">
+        <v>19</v>
+      </c>
+      <c r="K155">
         <v>526</v>
-      </c>
-      <c r="I155" t="s">
-        <v>262</v>
-      </c>
-      <c r="J155">
-        <v>19</v>
       </c>
       <c r="L155">
         <v>23.39</v>
@@ -6770,14 +6755,14 @@
       <c r="G156">
         <v>110</v>
       </c>
-      <c r="H156">
+      <c r="H156" t="s">
+        <v>263</v>
+      </c>
+      <c r="I156">
+        <v>14</v>
+      </c>
+      <c r="K156">
         <v>532</v>
-      </c>
-      <c r="I156" t="s">
-        <v>263</v>
-      </c>
-      <c r="J156">
-        <v>14</v>
       </c>
       <c r="L156">
         <v>22.83</v>
@@ -6796,17 +6781,17 @@
       <c r="D157" t="s">
         <v>260</v>
       </c>
-      <c r="H157">
+      <c r="H157" t="s">
+        <v>263</v>
+      </c>
+      <c r="I157">
+        <v>23</v>
+      </c>
+      <c r="J157">
+        <v>14</v>
+      </c>
+      <c r="K157">
         <v>564</v>
-      </c>
-      <c r="I157" t="s">
-        <v>263</v>
-      </c>
-      <c r="J157">
-        <v>23</v>
-      </c>
-      <c r="K157">
-        <v>14</v>
       </c>
       <c r="L157">
         <v>25.41</v>
@@ -6837,11 +6822,11 @@
       <c r="G158">
         <v>110</v>
       </c>
-      <c r="H158">
+      <c r="I158">
+        <v>21</v>
+      </c>
+      <c r="K158">
         <v>540</v>
-      </c>
-      <c r="J158">
-        <v>21</v>
       </c>
       <c r="L158">
         <v>24.3</v>
@@ -6872,14 +6857,14 @@
       <c r="G159">
         <v>121</v>
       </c>
-      <c r="H159">
+      <c r="H159" t="s">
+        <v>262</v>
+      </c>
+      <c r="I159">
+        <v>19</v>
+      </c>
+      <c r="K159">
         <v>556</v>
-      </c>
-      <c r="I159" t="s">
-        <v>262</v>
-      </c>
-      <c r="J159">
-        <v>19</v>
       </c>
       <c r="L159">
         <v>27.81</v>
@@ -6907,14 +6892,14 @@
       <c r="G160">
         <v>120</v>
       </c>
-      <c r="H160">
+      <c r="H160" t="s">
+        <v>263</v>
+      </c>
+      <c r="J160">
+        <v>18</v>
+      </c>
+      <c r="K160">
         <v>522</v>
-      </c>
-      <c r="I160" t="s">
-        <v>263</v>
-      </c>
-      <c r="K160">
-        <v>18</v>
       </c>
       <c r="L160">
         <v>23.8</v>
@@ -6945,14 +6930,14 @@
       <c r="G161">
         <v>100</v>
       </c>
-      <c r="H161">
+      <c r="H161" t="s">
+        <v>262</v>
+      </c>
+      <c r="I161">
+        <v>18</v>
+      </c>
+      <c r="K161">
         <v>599</v>
-      </c>
-      <c r="I161" t="s">
-        <v>262</v>
-      </c>
-      <c r="J161">
-        <v>18</v>
       </c>
       <c r="L161">
         <v>22.97</v>
@@ -6980,14 +6965,14 @@
       <c r="G162">
         <v>5</v>
       </c>
-      <c r="H162">
+      <c r="H162" t="s">
+        <v>263</v>
+      </c>
+      <c r="I162">
+        <v>12</v>
+      </c>
+      <c r="K162">
         <v>432</v>
-      </c>
-      <c r="I162" t="s">
-        <v>263</v>
-      </c>
-      <c r="J162">
-        <v>12</v>
       </c>
       <c r="L162">
         <v>25.42</v>
@@ -7015,14 +7000,14 @@
       <c r="G163">
         <v>17</v>
       </c>
-      <c r="H163">
+      <c r="H163" t="s">
+        <v>262</v>
+      </c>
+      <c r="I163">
+        <v>19</v>
+      </c>
+      <c r="K163">
         <v>541</v>
-      </c>
-      <c r="I163" t="s">
-        <v>262</v>
-      </c>
-      <c r="J163">
-        <v>19</v>
       </c>
       <c r="L163">
         <v>23.4</v>
@@ -7050,10 +7035,10 @@
       <c r="G164">
         <v>120</v>
       </c>
-      <c r="I164" t="s">
-        <v>263</v>
-      </c>
-      <c r="K164">
+      <c r="H164" t="s">
+        <v>263</v>
+      </c>
+      <c r="J164">
         <v>17</v>
       </c>
       <c r="M164">
@@ -7082,14 +7067,14 @@
       <c r="G165">
         <v>93</v>
       </c>
-      <c r="H165">
+      <c r="H165" t="s">
+        <v>263</v>
+      </c>
+      <c r="I165">
+        <v>17</v>
+      </c>
+      <c r="K165">
         <v>516</v>
-      </c>
-      <c r="I165" t="s">
-        <v>263</v>
-      </c>
-      <c r="J165">
-        <v>17</v>
       </c>
       <c r="L165">
         <v>22.55</v>
@@ -7117,14 +7102,14 @@
       <c r="G166">
         <v>96</v>
       </c>
-      <c r="H166">
+      <c r="H166" t="s">
+        <v>263</v>
+      </c>
+      <c r="I166">
+        <v>26</v>
+      </c>
+      <c r="K166">
         <v>554</v>
-      </c>
-      <c r="I166" t="s">
-        <v>263</v>
-      </c>
-      <c r="J166">
-        <v>26</v>
       </c>
       <c r="L166">
         <v>23.15</v>
@@ -7155,14 +7140,14 @@
       <c r="G167">
         <v>76</v>
       </c>
-      <c r="H167">
+      <c r="H167" t="s">
+        <v>262</v>
+      </c>
+      <c r="I167">
+        <v>17</v>
+      </c>
+      <c r="K167">
         <v>534</v>
-      </c>
-      <c r="I167" t="s">
-        <v>262</v>
-      </c>
-      <c r="J167">
-        <v>17</v>
       </c>
       <c r="L167">
         <v>22.55</v>
@@ -7187,14 +7172,14 @@
       <c r="G168">
         <v>0</v>
       </c>
-      <c r="H168">
+      <c r="H168" t="s">
+        <v>263</v>
+      </c>
+      <c r="I168">
+        <v>11</v>
+      </c>
+      <c r="K168">
         <v>529</v>
-      </c>
-      <c r="I168" t="s">
-        <v>263</v>
-      </c>
-      <c r="J168">
-        <v>11</v>
       </c>
       <c r="L168">
         <v>23.22</v>
@@ -7222,10 +7207,10 @@
       <c r="G169">
         <v>82</v>
       </c>
-      <c r="I169" t="s">
-        <v>263</v>
-      </c>
-      <c r="K169">
+      <c r="H169" t="s">
+        <v>263</v>
+      </c>
+      <c r="J169">
         <v>20</v>
       </c>
       <c r="L169">
@@ -7257,14 +7242,14 @@
       <c r="G170">
         <v>100</v>
       </c>
-      <c r="H170">
+      <c r="H170" t="s">
+        <v>262</v>
+      </c>
+      <c r="I170">
+        <v>15</v>
+      </c>
+      <c r="K170">
         <v>521</v>
-      </c>
-      <c r="I170" t="s">
-        <v>262</v>
-      </c>
-      <c r="J170">
-        <v>15</v>
       </c>
       <c r="L170">
         <v>23.18</v>
@@ -7292,14 +7277,14 @@
       <c r="G171">
         <v>80</v>
       </c>
-      <c r="H171">
+      <c r="H171" t="s">
+        <v>263</v>
+      </c>
+      <c r="J171">
+        <v>21</v>
+      </c>
+      <c r="K171">
         <v>600</v>
-      </c>
-      <c r="I171" t="s">
-        <v>263</v>
-      </c>
-      <c r="K171">
-        <v>21</v>
       </c>
       <c r="L171">
         <v>24.39</v>
@@ -7330,14 +7315,14 @@
       <c r="G172">
         <v>76</v>
       </c>
-      <c r="H172">
+      <c r="H172" t="s">
+        <v>262</v>
+      </c>
+      <c r="I172">
+        <v>16</v>
+      </c>
+      <c r="K172">
         <v>573</v>
-      </c>
-      <c r="I172" t="s">
-        <v>262</v>
-      </c>
-      <c r="J172">
-        <v>16</v>
       </c>
       <c r="L172">
         <v>23.45</v>
@@ -7365,14 +7350,14 @@
       <c r="G173">
         <v>80</v>
       </c>
-      <c r="H173">
+      <c r="H173" t="s">
+        <v>262</v>
+      </c>
+      <c r="I173">
+        <v>19</v>
+      </c>
+      <c r="K173">
         <v>610</v>
-      </c>
-      <c r="I173" t="s">
-        <v>262</v>
-      </c>
-      <c r="J173">
-        <v>19</v>
       </c>
       <c r="L173">
         <v>23.85</v>
@@ -7400,14 +7385,14 @@
       <c r="G174">
         <v>177</v>
       </c>
-      <c r="H174">
+      <c r="H174" t="s">
+        <v>263</v>
+      </c>
+      <c r="I174">
+        <v>16</v>
+      </c>
+      <c r="K174">
         <v>524</v>
-      </c>
-      <c r="I174" t="s">
-        <v>263</v>
-      </c>
-      <c r="J174">
-        <v>16</v>
       </c>
       <c r="L174">
         <v>25.61</v>
@@ -7435,14 +7420,14 @@
       <c r="G175">
         <v>50</v>
       </c>
-      <c r="H175">
+      <c r="H175" t="s">
+        <v>263</v>
+      </c>
+      <c r="I175">
+        <v>15</v>
+      </c>
+      <c r="K175">
         <v>505</v>
-      </c>
-      <c r="I175" t="s">
-        <v>263</v>
-      </c>
-      <c r="J175">
-        <v>15</v>
       </c>
       <c r="L175">
         <v>22.21</v>
@@ -7467,17 +7452,17 @@
       <c r="G176">
         <v>109</v>
       </c>
-      <c r="H176">
+      <c r="H176" t="s">
+        <v>263</v>
+      </c>
+      <c r="I176">
+        <v>18</v>
+      </c>
+      <c r="J176">
+        <v>15</v>
+      </c>
+      <c r="K176">
         <v>527</v>
-      </c>
-      <c r="I176" t="s">
-        <v>263</v>
-      </c>
-      <c r="J176">
-        <v>18</v>
-      </c>
-      <c r="K176">
-        <v>15</v>
       </c>
       <c r="L176">
         <v>22.26</v>
@@ -7508,14 +7493,14 @@
       <c r="G177">
         <v>85</v>
       </c>
-      <c r="H177">
+      <c r="H177" t="s">
+        <v>262</v>
+      </c>
+      <c r="I177">
+        <v>17</v>
+      </c>
+      <c r="K177">
         <v>505</v>
-      </c>
-      <c r="I177" t="s">
-        <v>262</v>
-      </c>
-      <c r="J177">
-        <v>17</v>
       </c>
       <c r="L177">
         <v>22.67</v>
@@ -7543,14 +7528,14 @@
       <c r="G178">
         <v>15</v>
       </c>
-      <c r="H178">
+      <c r="H178" t="s">
+        <v>262</v>
+      </c>
+      <c r="I178">
+        <v>19</v>
+      </c>
+      <c r="K178">
         <v>561</v>
-      </c>
-      <c r="I178" t="s">
-        <v>262</v>
-      </c>
-      <c r="J178">
-        <v>19</v>
       </c>
       <c r="L178">
         <v>23.85</v>
@@ -7578,14 +7563,14 @@
       <c r="G179">
         <v>97</v>
       </c>
-      <c r="H179">
+      <c r="H179" t="s">
+        <v>263</v>
+      </c>
+      <c r="I179">
+        <v>15</v>
+      </c>
+      <c r="K179">
         <v>525</v>
-      </c>
-      <c r="I179" t="s">
-        <v>263</v>
-      </c>
-      <c r="J179">
-        <v>15</v>
       </c>
       <c r="M179">
         <v>-3.87</v>
@@ -7613,14 +7598,14 @@
       <c r="G180">
         <v>82</v>
       </c>
-      <c r="H180">
+      <c r="H180" t="s">
+        <v>263</v>
+      </c>
+      <c r="I180">
+        <v>21</v>
+      </c>
+      <c r="K180">
         <v>559</v>
-      </c>
-      <c r="I180" t="s">
-        <v>263</v>
-      </c>
-      <c r="J180">
-        <v>21</v>
       </c>
       <c r="L180">
         <v>23.15</v>
@@ -7648,10 +7633,10 @@
       <c r="G181">
         <v>0</v>
       </c>
-      <c r="I181" t="s">
+      <c r="H181" t="s">
         <v>262</v>
       </c>
-      <c r="J181">
+      <c r="I181">
         <v>14</v>
       </c>
       <c r="L181">
@@ -7683,17 +7668,17 @@
       <c r="G182">
         <v>90</v>
       </c>
-      <c r="H182">
+      <c r="H182" t="s">
+        <v>263</v>
+      </c>
+      <c r="I182">
+        <v>30</v>
+      </c>
+      <c r="J182">
+        <v>22</v>
+      </c>
+      <c r="K182">
         <v>661</v>
-      </c>
-      <c r="I182" t="s">
-        <v>263</v>
-      </c>
-      <c r="J182">
-        <v>30</v>
-      </c>
-      <c r="K182">
-        <v>22</v>
       </c>
       <c r="L182">
         <v>22.58</v>
@@ -7724,14 +7709,14 @@
       <c r="G183">
         <v>37</v>
       </c>
-      <c r="H183">
+      <c r="H183" t="s">
+        <v>263</v>
+      </c>
+      <c r="I183">
+        <v>15</v>
+      </c>
+      <c r="K183">
         <v>485</v>
-      </c>
-      <c r="I183" t="s">
-        <v>263</v>
-      </c>
-      <c r="J183">
-        <v>15</v>
       </c>
       <c r="L183">
         <v>24.51</v>
@@ -7759,14 +7744,14 @@
       <c r="G184">
         <v>95</v>
       </c>
-      <c r="H184">
+      <c r="H184" t="s">
+        <v>262</v>
+      </c>
+      <c r="I184">
+        <v>12</v>
+      </c>
+      <c r="K184">
         <v>560</v>
-      </c>
-      <c r="I184" t="s">
-        <v>262</v>
-      </c>
-      <c r="J184">
-        <v>12</v>
       </c>
       <c r="L184">
         <v>21.93</v>
@@ -7794,14 +7779,14 @@
       <c r="G185">
         <v>150</v>
       </c>
-      <c r="H185">
+      <c r="H185" t="s">
+        <v>263</v>
+      </c>
+      <c r="I185">
+        <v>12</v>
+      </c>
+      <c r="K185">
         <v>523</v>
-      </c>
-      <c r="I185" t="s">
-        <v>263</v>
-      </c>
-      <c r="J185">
-        <v>12</v>
       </c>
       <c r="L185">
         <v>23.31</v>
@@ -7829,17 +7814,17 @@
       <c r="G186">
         <v>36</v>
       </c>
-      <c r="H186">
+      <c r="H186" t="s">
+        <v>263</v>
+      </c>
+      <c r="I186">
+        <v>17</v>
+      </c>
+      <c r="J186">
+        <v>20</v>
+      </c>
+      <c r="K186">
         <v>548</v>
-      </c>
-      <c r="I186" t="s">
-        <v>263</v>
-      </c>
-      <c r="J186">
-        <v>17</v>
-      </c>
-      <c r="K186">
-        <v>20</v>
       </c>
       <c r="M186">
         <v>-13.74</v>
@@ -7867,14 +7852,14 @@
       <c r="G187">
         <v>153</v>
       </c>
-      <c r="H187">
+      <c r="H187" t="s">
+        <v>263</v>
+      </c>
+      <c r="I187">
+        <v>11</v>
+      </c>
+      <c r="K187">
         <v>568</v>
-      </c>
-      <c r="I187" t="s">
-        <v>263</v>
-      </c>
-      <c r="J187">
-        <v>11</v>
       </c>
       <c r="L187">
         <v>22.25</v>
@@ -7902,14 +7887,14 @@
       <c r="G188">
         <v>85</v>
       </c>
-      <c r="H188">
+      <c r="H188" t="s">
+        <v>263</v>
+      </c>
+      <c r="J188">
+        <v>14</v>
+      </c>
+      <c r="K188">
         <v>548</v>
-      </c>
-      <c r="I188" t="s">
-        <v>263</v>
-      </c>
-      <c r="K188">
-        <v>14</v>
       </c>
       <c r="M188">
         <v>-14.22</v>
@@ -7937,14 +7922,14 @@
       <c r="G189">
         <v>92</v>
       </c>
-      <c r="H189">
+      <c r="H189" t="s">
+        <v>262</v>
+      </c>
+      <c r="I189">
+        <v>12</v>
+      </c>
+      <c r="K189">
         <v>452</v>
-      </c>
-      <c r="I189" t="s">
-        <v>262</v>
-      </c>
-      <c r="J189">
-        <v>12</v>
       </c>
       <c r="L189">
         <v>23.53</v>
@@ -7972,14 +7957,14 @@
       <c r="G190">
         <v>135</v>
       </c>
-      <c r="H190">
+      <c r="H190" t="s">
+        <v>263</v>
+      </c>
+      <c r="I190">
+        <v>15</v>
+      </c>
+      <c r="K190">
         <v>546</v>
-      </c>
-      <c r="I190" t="s">
-        <v>263</v>
-      </c>
-      <c r="J190">
-        <v>15</v>
       </c>
       <c r="L190">
         <v>24.3</v>
@@ -8010,14 +7995,14 @@
       <c r="G191">
         <v>35</v>
       </c>
-      <c r="H191">
+      <c r="H191" t="s">
+        <v>263</v>
+      </c>
+      <c r="J191">
+        <v>14</v>
+      </c>
+      <c r="K191">
         <v>497</v>
-      </c>
-      <c r="I191" t="s">
-        <v>263</v>
-      </c>
-      <c r="K191">
-        <v>14</v>
       </c>
       <c r="L191">
         <v>22.4</v>
@@ -8045,14 +8030,14 @@
       <c r="G192">
         <v>25</v>
       </c>
-      <c r="H192">
+      <c r="H192" t="s">
+        <v>262</v>
+      </c>
+      <c r="I192">
+        <v>16</v>
+      </c>
+      <c r="K192">
         <v>508</v>
-      </c>
-      <c r="I192" t="s">
-        <v>262</v>
-      </c>
-      <c r="J192">
-        <v>16</v>
       </c>
       <c r="L192">
         <v>24.35</v>
@@ -8080,14 +8065,14 @@
       <c r="G193">
         <v>93</v>
       </c>
-      <c r="H193">
+      <c r="H193" t="s">
+        <v>263</v>
+      </c>
+      <c r="I193">
+        <v>20</v>
+      </c>
+      <c r="K193">
         <v>552</v>
-      </c>
-      <c r="I193" t="s">
-        <v>263</v>
-      </c>
-      <c r="J193">
-        <v>20</v>
       </c>
       <c r="L193">
         <v>23.18</v>
@@ -8115,14 +8100,14 @@
       <c r="G194">
         <v>120</v>
       </c>
-      <c r="H194">
+      <c r="H194" t="s">
+        <v>263</v>
+      </c>
+      <c r="I194">
+        <v>24</v>
+      </c>
+      <c r="K194">
         <v>657</v>
-      </c>
-      <c r="I194" t="s">
-        <v>263</v>
-      </c>
-      <c r="J194">
-        <v>24</v>
       </c>
       <c r="L194">
         <v>22.67</v>
@@ -8144,14 +8129,14 @@
       <c r="E195">
         <v>-1</v>
       </c>
-      <c r="H195">
+      <c r="H195" t="s">
+        <v>263</v>
+      </c>
+      <c r="I195">
+        <v>11</v>
+      </c>
+      <c r="K195">
         <v>482</v>
-      </c>
-      <c r="I195" t="s">
-        <v>263</v>
-      </c>
-      <c r="J195">
-        <v>11</v>
       </c>
       <c r="L195">
         <v>24.07</v>
@@ -8179,14 +8164,14 @@
       <c r="G196">
         <v>72</v>
       </c>
-      <c r="H196">
+      <c r="H196" t="s">
+        <v>262</v>
+      </c>
+      <c r="I196">
+        <v>15</v>
+      </c>
+      <c r="K196">
         <v>510</v>
-      </c>
-      <c r="I196" t="s">
-        <v>262</v>
-      </c>
-      <c r="J196">
-        <v>15</v>
       </c>
       <c r="L196">
         <v>22.45</v>
@@ -8214,14 +8199,14 @@
       <c r="G197">
         <v>123</v>
       </c>
-      <c r="H197">
+      <c r="H197" t="s">
+        <v>263</v>
+      </c>
+      <c r="I197">
+        <v>17</v>
+      </c>
+      <c r="K197">
         <v>519</v>
-      </c>
-      <c r="I197" t="s">
-        <v>263</v>
-      </c>
-      <c r="J197">
-        <v>17</v>
       </c>
       <c r="L197">
         <v>23.76</v>
@@ -8249,14 +8234,14 @@
       <c r="G198">
         <v>108</v>
       </c>
-      <c r="H198">
+      <c r="H198" t="s">
+        <v>263</v>
+      </c>
+      <c r="I198">
+        <v>13</v>
+      </c>
+      <c r="K198">
         <v>542</v>
-      </c>
-      <c r="I198" t="s">
-        <v>263</v>
-      </c>
-      <c r="J198">
-        <v>13</v>
       </c>
       <c r="L198">
         <v>24.72</v>
@@ -8284,14 +8269,14 @@
       <c r="G199">
         <v>95</v>
       </c>
-      <c r="H199">
+      <c r="H199" t="s">
+        <v>263</v>
+      </c>
+      <c r="I199">
+        <v>19</v>
+      </c>
+      <c r="K199">
         <v>561</v>
-      </c>
-      <c r="I199" t="s">
-        <v>263</v>
-      </c>
-      <c r="J199">
-        <v>19</v>
       </c>
       <c r="L199">
         <v>22.91</v>
@@ -8319,14 +8304,14 @@
       <c r="G200">
         <v>5</v>
       </c>
-      <c r="H200">
+      <c r="H200" t="s">
+        <v>263</v>
+      </c>
+      <c r="I200">
+        <v>16</v>
+      </c>
+      <c r="K200">
         <v>529</v>
-      </c>
-      <c r="I200" t="s">
-        <v>263</v>
-      </c>
-      <c r="J200">
-        <v>16</v>
       </c>
       <c r="L200">
         <v>24.31</v>
@@ -8354,11 +8339,11 @@
       <c r="G201">
         <v>3</v>
       </c>
-      <c r="H201">
+      <c r="I201">
+        <v>13</v>
+      </c>
+      <c r="K201">
         <v>462</v>
-      </c>
-      <c r="J201">
-        <v>13</v>
       </c>
       <c r="L201">
         <v>22.64</v>
@@ -8386,14 +8371,14 @@
       <c r="G202">
         <v>30</v>
       </c>
-      <c r="H202">
+      <c r="H202" t="s">
+        <v>263</v>
+      </c>
+      <c r="J202">
+        <v>11</v>
+      </c>
+      <c r="K202">
         <v>484</v>
-      </c>
-      <c r="I202" t="s">
-        <v>263</v>
-      </c>
-      <c r="K202">
-        <v>11</v>
       </c>
       <c r="L202">
         <v>23.77</v>
@@ -8424,14 +8409,14 @@
       <c r="G203">
         <v>70</v>
       </c>
-      <c r="H203">
+      <c r="H203" t="s">
+        <v>262</v>
+      </c>
+      <c r="I203">
+        <v>16</v>
+      </c>
+      <c r="K203">
         <v>553</v>
-      </c>
-      <c r="I203" t="s">
-        <v>262</v>
-      </c>
-      <c r="J203">
-        <v>16</v>
       </c>
       <c r="L203">
         <v>22.57</v>
@@ -8459,14 +8444,14 @@
       <c r="G204">
         <v>133</v>
       </c>
-      <c r="H204">
+      <c r="H204" t="s">
+        <v>263</v>
+      </c>
+      <c r="I204">
+        <v>23</v>
+      </c>
+      <c r="K204">
         <v>599</v>
-      </c>
-      <c r="I204" t="s">
-        <v>263</v>
-      </c>
-      <c r="J204">
-        <v>23</v>
       </c>
       <c r="L204">
         <v>22.66</v>
@@ -8494,14 +8479,14 @@
       <c r="G205">
         <v>80</v>
       </c>
-      <c r="H205">
+      <c r="H205" t="s">
+        <v>263</v>
+      </c>
+      <c r="I205">
+        <v>12</v>
+      </c>
+      <c r="K205">
         <v>548</v>
-      </c>
-      <c r="I205" t="s">
-        <v>263</v>
-      </c>
-      <c r="J205">
-        <v>12</v>
       </c>
       <c r="L205">
         <v>21.67</v>
@@ -8529,14 +8514,14 @@
       <c r="G206">
         <v>125</v>
       </c>
-      <c r="H206">
+      <c r="H206" t="s">
+        <v>263</v>
+      </c>
+      <c r="I206">
+        <v>18</v>
+      </c>
+      <c r="K206">
         <v>519</v>
-      </c>
-      <c r="I206" t="s">
-        <v>263</v>
-      </c>
-      <c r="J206">
-        <v>18</v>
       </c>
       <c r="L206">
         <v>24.59</v>
@@ -8564,14 +8549,14 @@
       <c r="G207">
         <v>10</v>
       </c>
-      <c r="H207">
+      <c r="H207" t="s">
+        <v>262</v>
+      </c>
+      <c r="I207">
+        <v>15</v>
+      </c>
+      <c r="K207">
         <v>546</v>
-      </c>
-      <c r="I207" t="s">
-        <v>262</v>
-      </c>
-      <c r="J207">
-        <v>15</v>
       </c>
       <c r="L207">
         <v>22.17</v>
@@ -8599,17 +8584,17 @@
       <c r="G208">
         <v>155</v>
       </c>
-      <c r="H208">
+      <c r="H208" t="s">
+        <v>262</v>
+      </c>
+      <c r="I208">
+        <v>11</v>
+      </c>
+      <c r="J208">
+        <v>14</v>
+      </c>
+      <c r="K208">
         <v>505</v>
-      </c>
-      <c r="I208" t="s">
-        <v>262</v>
-      </c>
-      <c r="J208">
-        <v>11</v>
-      </c>
-      <c r="K208">
-        <v>14</v>
       </c>
       <c r="L208">
         <v>23.81</v>
@@ -8640,14 +8625,14 @@
       <c r="G209">
         <v>90</v>
       </c>
-      <c r="H209">
+      <c r="H209" t="s">
+        <v>262</v>
+      </c>
+      <c r="I209">
+        <v>21</v>
+      </c>
+      <c r="K209">
         <v>586</v>
-      </c>
-      <c r="I209" t="s">
-        <v>262</v>
-      </c>
-      <c r="J209">
-        <v>21</v>
       </c>
       <c r="L209">
         <v>23.64</v>
@@ -8678,14 +8663,14 @@
       <c r="G210">
         <v>94</v>
       </c>
-      <c r="H210">
+      <c r="H210" t="s">
+        <v>263</v>
+      </c>
+      <c r="I210">
+        <v>15</v>
+      </c>
+      <c r="K210">
         <v>576</v>
-      </c>
-      <c r="I210" t="s">
-        <v>263</v>
-      </c>
-      <c r="J210">
-        <v>15</v>
       </c>
       <c r="L210">
         <v>23.68</v>
@@ -8713,14 +8698,14 @@
       <c r="G211">
         <v>95</v>
       </c>
-      <c r="H211">
+      <c r="H211" t="s">
+        <v>263</v>
+      </c>
+      <c r="I211">
+        <v>14</v>
+      </c>
+      <c r="K211">
         <v>543</v>
-      </c>
-      <c r="I211" t="s">
-        <v>263</v>
-      </c>
-      <c r="J211">
-        <v>14</v>
       </c>
       <c r="L211">
         <v>23.48</v>
@@ -8748,14 +8733,14 @@
       <c r="G212">
         <v>100</v>
       </c>
-      <c r="H212">
+      <c r="H212" t="s">
+        <v>263</v>
+      </c>
+      <c r="I212">
+        <v>18</v>
+      </c>
+      <c r="K212">
         <v>529</v>
-      </c>
-      <c r="I212" t="s">
-        <v>263</v>
-      </c>
-      <c r="J212">
-        <v>18</v>
       </c>
       <c r="L212">
         <v>23.27</v>
@@ -8786,14 +8771,14 @@
       <c r="G213">
         <v>105</v>
       </c>
-      <c r="H213">
+      <c r="H213" t="s">
+        <v>262</v>
+      </c>
+      <c r="I213">
+        <v>14</v>
+      </c>
+      <c r="K213">
         <v>482</v>
-      </c>
-      <c r="I213" t="s">
-        <v>262</v>
-      </c>
-      <c r="J213">
-        <v>14</v>
       </c>
       <c r="L213">
         <v>22.73</v>
@@ -8821,14 +8806,14 @@
       <c r="G214">
         <v>130</v>
       </c>
-      <c r="H214">
+      <c r="H214" t="s">
+        <v>263</v>
+      </c>
+      <c r="I214">
+        <v>12</v>
+      </c>
+      <c r="K214">
         <v>467</v>
-      </c>
-      <c r="I214" t="s">
-        <v>263</v>
-      </c>
-      <c r="J214">
-        <v>12</v>
       </c>
       <c r="L214">
         <v>23.46</v>
@@ -8853,14 +8838,14 @@
       <c r="G215">
         <v>85</v>
       </c>
-      <c r="H215">
+      <c r="H215" t="s">
+        <v>262</v>
+      </c>
+      <c r="I215">
+        <v>13</v>
+      </c>
+      <c r="K215">
         <v>517</v>
-      </c>
-      <c r="I215" t="s">
-        <v>262</v>
-      </c>
-      <c r="J215">
-        <v>13</v>
       </c>
       <c r="L215">
         <v>24.16</v>
@@ -8888,14 +8873,14 @@
       <c r="G216">
         <v>107</v>
       </c>
-      <c r="H216">
+      <c r="H216" t="s">
+        <v>263</v>
+      </c>
+      <c r="I216">
+        <v>12</v>
+      </c>
+      <c r="K216">
         <v>485</v>
-      </c>
-      <c r="I216" t="s">
-        <v>263</v>
-      </c>
-      <c r="J216">
-        <v>12</v>
       </c>
       <c r="L216">
         <v>23.46</v>
@@ -8920,14 +8905,14 @@
       <c r="G217">
         <v>165</v>
       </c>
-      <c r="H217">
+      <c r="H217" t="s">
+        <v>263</v>
+      </c>
+      <c r="I217">
+        <v>13</v>
+      </c>
+      <c r="K217">
         <v>472</v>
-      </c>
-      <c r="I217" t="s">
-        <v>263</v>
-      </c>
-      <c r="J217">
-        <v>13</v>
       </c>
       <c r="L217">
         <v>24.35</v>
@@ -8955,14 +8940,14 @@
       <c r="G218">
         <v>85</v>
       </c>
-      <c r="H218">
+      <c r="H218" t="s">
+        <v>262</v>
+      </c>
+      <c r="J218">
+        <v>19</v>
+      </c>
+      <c r="K218">
         <v>501</v>
-      </c>
-      <c r="I218" t="s">
-        <v>262</v>
-      </c>
-      <c r="K218">
-        <v>19</v>
       </c>
       <c r="L218">
         <v>23.06</v>
@@ -8993,14 +8978,14 @@
       <c r="G219">
         <v>76</v>
       </c>
-      <c r="H219">
+      <c r="H219" t="s">
+        <v>263</v>
+      </c>
+      <c r="I219">
+        <v>13</v>
+      </c>
+      <c r="K219">
         <v>467</v>
-      </c>
-      <c r="I219" t="s">
-        <v>263</v>
-      </c>
-      <c r="J219">
-        <v>13</v>
       </c>
       <c r="L219">
         <v>22.63</v>
@@ -9028,14 +9013,14 @@
       <c r="G220">
         <v>10</v>
       </c>
-      <c r="H220">
+      <c r="H220" t="s">
+        <v>262</v>
+      </c>
+      <c r="I220">
+        <v>16</v>
+      </c>
+      <c r="K220">
         <v>489</v>
-      </c>
-      <c r="I220" t="s">
-        <v>262</v>
-      </c>
-      <c r="J220">
-        <v>16</v>
       </c>
       <c r="L220">
         <v>22.76</v>
@@ -9063,14 +9048,14 @@
       <c r="G221">
         <v>105</v>
       </c>
-      <c r="H221">
+      <c r="H221" t="s">
+        <v>262</v>
+      </c>
+      <c r="I221">
+        <v>16</v>
+      </c>
+      <c r="K221">
         <v>590</v>
-      </c>
-      <c r="I221" t="s">
-        <v>262</v>
-      </c>
-      <c r="J221">
-        <v>16</v>
       </c>
       <c r="L221">
         <v>22.46</v>
@@ -9101,14 +9086,14 @@
       <c r="G222">
         <v>85</v>
       </c>
-      <c r="H222">
+      <c r="H222" t="s">
+        <v>263</v>
+      </c>
+      <c r="I222">
+        <v>13</v>
+      </c>
+      <c r="K222">
         <v>495</v>
-      </c>
-      <c r="I222" t="s">
-        <v>263</v>
-      </c>
-      <c r="J222">
-        <v>13</v>
       </c>
       <c r="L222">
         <v>22.53</v>
@@ -9136,14 +9121,14 @@
       <c r="G223">
         <v>35</v>
       </c>
-      <c r="H223">
+      <c r="H223" t="s">
+        <v>262</v>
+      </c>
+      <c r="I223">
+        <v>14</v>
+      </c>
+      <c r="K223">
         <v>558</v>
-      </c>
-      <c r="I223" t="s">
-        <v>262</v>
-      </c>
-      <c r="J223">
-        <v>14</v>
       </c>
       <c r="L223">
         <v>22.33</v>
@@ -9171,14 +9156,14 @@
       <c r="G224">
         <v>108</v>
       </c>
-      <c r="H224">
+      <c r="H224" t="s">
+        <v>263</v>
+      </c>
+      <c r="I224">
+        <v>22.7</v>
+      </c>
+      <c r="K224">
         <v>593</v>
-      </c>
-      <c r="I224" t="s">
-        <v>263</v>
-      </c>
-      <c r="J224">
-        <v>22.7</v>
       </c>
       <c r="L224">
         <v>21.68</v>
@@ -9206,17 +9191,17 @@
       <c r="G225">
         <v>70</v>
       </c>
-      <c r="H225">
+      <c r="H225" t="s">
+        <v>263</v>
+      </c>
+      <c r="I225">
+        <v>25</v>
+      </c>
+      <c r="J225">
+        <v>18</v>
+      </c>
+      <c r="K225">
         <v>523</v>
-      </c>
-      <c r="I225" t="s">
-        <v>263</v>
-      </c>
-      <c r="J225">
-        <v>25</v>
-      </c>
-      <c r="K225">
-        <v>18</v>
       </c>
       <c r="L225">
         <v>23.61</v>
@@ -9247,14 +9232,14 @@
       <c r="G226">
         <v>143</v>
       </c>
-      <c r="H226">
+      <c r="H226" t="s">
+        <v>263</v>
+      </c>
+      <c r="I226">
+        <v>13</v>
+      </c>
+      <c r="K226">
         <v>482</v>
-      </c>
-      <c r="I226" t="s">
-        <v>263</v>
-      </c>
-      <c r="J226">
-        <v>13</v>
       </c>
       <c r="L226">
         <v>25.01</v>
@@ -9282,10 +9267,10 @@
       <c r="G227">
         <v>30</v>
       </c>
-      <c r="I227" t="s">
-        <v>263</v>
-      </c>
-      <c r="K227">
+      <c r="H227" t="s">
+        <v>263</v>
+      </c>
+      <c r="J227">
         <v>13</v>
       </c>
       <c r="L227">
@@ -9317,14 +9302,14 @@
       <c r="G228">
         <v>90</v>
       </c>
-      <c r="H228">
+      <c r="H228" t="s">
+        <v>262</v>
+      </c>
+      <c r="I228">
+        <v>22</v>
+      </c>
+      <c r="K228">
         <v>542</v>
-      </c>
-      <c r="I228" t="s">
-        <v>262</v>
-      </c>
-      <c r="J228">
-        <v>22</v>
       </c>
       <c r="L228">
         <v>23.6</v>
@@ -9352,14 +9337,14 @@
       <c r="G229">
         <v>111</v>
       </c>
-      <c r="H229">
+      <c r="H229" t="s">
+        <v>263</v>
+      </c>
+      <c r="I229">
+        <v>21.5</v>
+      </c>
+      <c r="K229">
         <v>491</v>
-      </c>
-      <c r="I229" t="s">
-        <v>263</v>
-      </c>
-      <c r="J229">
-        <v>21.5</v>
       </c>
       <c r="L229">
         <v>24.37</v>
@@ -9387,14 +9372,14 @@
       <c r="G230">
         <v>6</v>
       </c>
-      <c r="H230">
+      <c r="H230" t="s">
+        <v>263</v>
+      </c>
+      <c r="I230">
+        <v>14</v>
+      </c>
+      <c r="K230">
         <v>491</v>
-      </c>
-      <c r="I230" t="s">
-        <v>263</v>
-      </c>
-      <c r="J230">
-        <v>14</v>
       </c>
       <c r="L230">
         <v>22.4</v>
@@ -9422,14 +9407,14 @@
       <c r="G231">
         <v>60</v>
       </c>
-      <c r="H231">
+      <c r="H231" t="s">
+        <v>262</v>
+      </c>
+      <c r="I231">
+        <v>17</v>
+      </c>
+      <c r="K231">
         <v>505</v>
-      </c>
-      <c r="I231" t="s">
-        <v>262</v>
-      </c>
-      <c r="J231">
-        <v>17</v>
       </c>
       <c r="L231">
         <v>22.25</v>
@@ -9457,14 +9442,14 @@
       <c r="G232">
         <v>32</v>
       </c>
-      <c r="H232">
+      <c r="H232" t="s">
+        <v>262</v>
+      </c>
+      <c r="I232">
+        <v>14</v>
+      </c>
+      <c r="K232">
         <v>579</v>
-      </c>
-      <c r="I232" t="s">
-        <v>262</v>
-      </c>
-      <c r="J232">
-        <v>14</v>
       </c>
       <c r="L232">
         <v>23.36</v>
@@ -9492,14 +9477,14 @@
       <c r="G233">
         <v>5</v>
       </c>
-      <c r="H233">
+      <c r="H233" t="s">
+        <v>263</v>
+      </c>
+      <c r="I233">
+        <v>14</v>
+      </c>
+      <c r="K233">
         <v>587</v>
-      </c>
-      <c r="I233" t="s">
-        <v>263</v>
-      </c>
-      <c r="J233">
-        <v>14</v>
       </c>
       <c r="L233">
         <v>23.36</v>
@@ -9527,14 +9512,14 @@
       <c r="G234">
         <v>27</v>
       </c>
-      <c r="H234">
+      <c r="H234" t="s">
+        <v>263</v>
+      </c>
+      <c r="I234">
+        <v>12</v>
+      </c>
+      <c r="K234">
         <v>478</v>
-      </c>
-      <c r="I234" t="s">
-        <v>263</v>
-      </c>
-      <c r="J234">
-        <v>12</v>
       </c>
       <c r="L234">
         <v>24.59</v>
@@ -9562,14 +9547,14 @@
       <c r="G235">
         <v>120</v>
       </c>
-      <c r="H235">
+      <c r="H235" t="s">
+        <v>263</v>
+      </c>
+      <c r="I235">
+        <v>12</v>
+      </c>
+      <c r="K235">
         <v>529</v>
-      </c>
-      <c r="I235" t="s">
-        <v>263</v>
-      </c>
-      <c r="J235">
-        <v>12</v>
       </c>
       <c r="L235">
         <v>22.27</v>
@@ -9597,14 +9582,14 @@
       <c r="G236">
         <v>10</v>
       </c>
-      <c r="H236">
+      <c r="H236" t="s">
+        <v>263</v>
+      </c>
+      <c r="I236">
+        <v>15</v>
+      </c>
+      <c r="K236">
         <v>612</v>
-      </c>
-      <c r="I236" t="s">
-        <v>263</v>
-      </c>
-      <c r="J236">
-        <v>15</v>
       </c>
       <c r="L236">
         <v>24.91</v>
@@ -9632,14 +9617,14 @@
       <c r="G237">
         <v>35</v>
       </c>
-      <c r="H237">
+      <c r="H237" t="s">
+        <v>262</v>
+      </c>
+      <c r="I237">
+        <v>14</v>
+      </c>
+      <c r="K237">
         <v>540</v>
-      </c>
-      <c r="I237" t="s">
-        <v>262</v>
-      </c>
-      <c r="J237">
-        <v>14</v>
       </c>
       <c r="L237">
         <v>23.81</v>
@@ -9667,14 +9652,14 @@
       <c r="G238">
         <v>95</v>
       </c>
-      <c r="H238">
+      <c r="H238" t="s">
+        <v>263</v>
+      </c>
+      <c r="I238">
+        <v>18</v>
+      </c>
+      <c r="K238">
         <v>547</v>
-      </c>
-      <c r="I238" t="s">
-        <v>263</v>
-      </c>
-      <c r="J238">
-        <v>18</v>
       </c>
       <c r="L238">
         <v>23.06</v>
@@ -9702,14 +9687,14 @@
       <c r="G239">
         <v>167</v>
       </c>
-      <c r="H239">
+      <c r="H239" t="s">
+        <v>263</v>
+      </c>
+      <c r="J239">
+        <v>19</v>
+      </c>
+      <c r="K239">
         <v>557</v>
-      </c>
-      <c r="I239" t="s">
-        <v>263</v>
-      </c>
-      <c r="K239">
-        <v>19</v>
       </c>
       <c r="L239">
         <v>25.76</v>
@@ -9740,14 +9725,14 @@
       <c r="G240">
         <v>78</v>
       </c>
-      <c r="H240">
+      <c r="H240" t="s">
+        <v>263</v>
+      </c>
+      <c r="I240">
+        <v>20</v>
+      </c>
+      <c r="K240">
         <v>562</v>
-      </c>
-      <c r="I240" t="s">
-        <v>263</v>
-      </c>
-      <c r="J240">
-        <v>20</v>
       </c>
       <c r="L240">
         <v>22.69</v>
@@ -9775,14 +9760,14 @@
       <c r="G241">
         <v>10</v>
       </c>
-      <c r="H241">
+      <c r="H241" t="s">
+        <v>263</v>
+      </c>
+      <c r="J241">
+        <v>20</v>
+      </c>
+      <c r="K241">
         <v>565</v>
-      </c>
-      <c r="I241" t="s">
-        <v>263</v>
-      </c>
-      <c r="K241">
-        <v>20</v>
       </c>
       <c r="L241">
         <v>25.33</v>
@@ -9813,14 +9798,14 @@
       <c r="G242">
         <v>90</v>
       </c>
-      <c r="H242">
+      <c r="H242" t="s">
+        <v>263</v>
+      </c>
+      <c r="I242">
+        <v>14</v>
+      </c>
+      <c r="K242">
         <v>508</v>
-      </c>
-      <c r="I242" t="s">
-        <v>263</v>
-      </c>
-      <c r="J242">
-        <v>14</v>
       </c>
       <c r="L242">
         <v>24.31</v>
@@ -9851,14 +9836,14 @@
       <c r="G243">
         <v>100</v>
       </c>
-      <c r="H243">
+      <c r="H243" t="s">
+        <v>263</v>
+      </c>
+      <c r="J243">
+        <v>18</v>
+      </c>
+      <c r="K243">
         <v>534</v>
-      </c>
-      <c r="I243" t="s">
-        <v>263</v>
-      </c>
-      <c r="K243">
-        <v>18</v>
       </c>
       <c r="L243">
         <v>24.62</v>
@@ -9889,14 +9874,14 @@
       <c r="G244">
         <v>97</v>
       </c>
-      <c r="H244">
+      <c r="H244" t="s">
+        <v>262</v>
+      </c>
+      <c r="I244">
+        <v>13</v>
+      </c>
+      <c r="K244">
         <v>575</v>
-      </c>
-      <c r="I244" t="s">
-        <v>262</v>
-      </c>
-      <c r="J244">
-        <v>13</v>
       </c>
       <c r="L244">
         <v>24.66</v>
@@ -9927,14 +9912,14 @@
       <c r="G245">
         <v>72</v>
       </c>
-      <c r="H245">
+      <c r="H245" t="s">
+        <v>263</v>
+      </c>
+      <c r="I245">
+        <v>15</v>
+      </c>
+      <c r="K245">
         <v>522</v>
-      </c>
-      <c r="I245" t="s">
-        <v>263</v>
-      </c>
-      <c r="J245">
-        <v>15</v>
       </c>
       <c r="L245">
         <v>25.78</v>
